--- a/my/dividend/out.xlsx
+++ b/my/dividend/out.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K422"/>
+  <dimension ref="A1:K423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6644,25 +6644,25 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>2022年报</t>
+          <t>2023年报(未公布具体日期)</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>20230705</v>
+        <v>20240403</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>10派3.1元(实施方案)</t>
+          <t>10派3.2元(董事会预案)(未确定具体日期)</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="G147" t="n">
-        <v>3.91275372</v>
+        <v>4.38091653</v>
       </c>
       <c r="H147" t="n">
-        <v>0.07922808900939464</v>
+        <v>0.07304407600753808</v>
       </c>
       <c r="I147" t="n">
         <v>0.04323201609737448</v>
@@ -6671,7 +6671,7 @@
         <v>0.09344254694577137</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06778424549308951</v>
+        <v>0.06826241190349393</v>
       </c>
     </row>
     <row r="148">
@@ -6687,25 +6687,25 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>2021年报</t>
+          <t>2022年报</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>20220714</v>
+        <v>20230705</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>10派3.05元(实施方案)</t>
+          <t>10派3.1元(实施方案)</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0.305</v>
+        <v>0.31</v>
       </c>
       <c r="G148" t="n">
-        <v>3.89117654</v>
+        <v>3.91275372</v>
       </c>
       <c r="H148" t="n">
-        <v>0.07838246269854413</v>
+        <v>0.07922808900939464</v>
       </c>
       <c r="I148" t="n">
         <v>0.04323201609737448</v>
@@ -6714,7 +6714,7 @@
         <v>0.09344254694577137</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06778424549308951</v>
+        <v>0.06826241190349393</v>
       </c>
     </row>
     <row r="149">
@@ -6730,25 +6730,25 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>2020年报</t>
+          <t>2021年报</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>20210715</v>
+        <v>20220714</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>10派3元(实施方案)</t>
+          <t>10派3.05元(实施方案)</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0.3</v>
+        <v>0.305</v>
       </c>
       <c r="G149" t="n">
-        <v>3.92453704</v>
+        <v>3.89117654</v>
       </c>
       <c r="H149" t="n">
-        <v>0.07644213749094848</v>
+        <v>0.07838246269854413</v>
       </c>
       <c r="I149" t="n">
         <v>0.04323201609737448</v>
@@ -6757,7 +6757,7 @@
         <v>0.09344254694577137</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06778424549308951</v>
+        <v>0.06826241190349393</v>
       </c>
     </row>
     <row r="150">
@@ -6773,25 +6773,25 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>2019年报</t>
+          <t>2020年报</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>20200714</v>
+        <v>20210715</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>10派3.05元(实施方案)</t>
+          <t>10派3元(实施方案)</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0.305</v>
+        <v>0.3</v>
       </c>
       <c r="G150" t="n">
-        <v>4.33849959</v>
+        <v>3.92453704</v>
       </c>
       <c r="H150" t="n">
-        <v>0.07030080184933243</v>
+        <v>0.07644213749094848</v>
       </c>
       <c r="I150" t="n">
         <v>0.04323201609737448</v>
@@ -6800,7 +6800,7 @@
         <v>0.09344254694577137</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06778424549308951</v>
+        <v>0.06826241190349393</v>
       </c>
     </row>
     <row r="151">
@@ -6816,25 +6816,25 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>2018年报</t>
+          <t>2019年报</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>20190710</v>
+        <v>20200714</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>10派2.86元(实施方案)</t>
+          <t>10派3.05元(实施方案)</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0.286</v>
+        <v>0.305</v>
       </c>
       <c r="G151" t="n">
-        <v>4.57530247</v>
+        <v>4.33849959</v>
       </c>
       <c r="H151" t="n">
-        <v>0.06250952846839873</v>
+        <v>0.07030080184933243</v>
       </c>
       <c r="I151" t="n">
         <v>0.04323201609737448</v>
@@ -6843,7 +6843,7 @@
         <v>0.09344254694577137</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06778424549308951</v>
+        <v>0.06826241190349393</v>
       </c>
     </row>
     <row r="152">
@@ -6859,25 +6859,25 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>2017年报</t>
+          <t>2018年报</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>20180711</v>
+        <v>20190710</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>10派2.67元(实施方案)</t>
+          <t>10派2.86元(实施方案)</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0.267</v>
+        <v>0.286</v>
       </c>
       <c r="G152" t="n">
-        <v>5.30826864</v>
+        <v>4.57530247</v>
       </c>
       <c r="H152" t="n">
-        <v>0.05029888615433752</v>
+        <v>0.06250952846839873</v>
       </c>
       <c r="I152" t="n">
         <v>0.04323201609737448</v>
@@ -6886,7 +6886,7 @@
         <v>0.09344254694577137</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06778424549308951</v>
+        <v>0.06826241190349393</v>
       </c>
     </row>
     <row r="153">
@@ -6902,25 +6902,25 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>2016年报</t>
+          <t>2017年报</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>20170711</v>
+        <v>20180711</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>10送2股派2.5元(实施方案)</t>
+          <t>10派2.67元(实施方案)</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>0.25</v>
+        <v>0.267</v>
       </c>
       <c r="G153" t="n">
-        <v>4.95081926</v>
+        <v>5.30826864</v>
       </c>
       <c r="H153" t="n">
-        <v>0.05049669294532073</v>
+        <v>0.05029888615433752</v>
       </c>
       <c r="I153" t="n">
         <v>0.04323201609737448</v>
@@ -6929,7 +6929,7 @@
         <v>0.09344254694577137</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06778424549308951</v>
+        <v>0.06826241190349393</v>
       </c>
     </row>
     <row r="154">
@@ -6945,25 +6945,25 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>2015年报</t>
+          <t>2016年报</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>20160708</v>
+        <v>20170711</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>10派2.5元送2股(实施方案)</t>
+          <t>10送2股派2.5元(实施方案)</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G154" t="n">
-        <v>4.41830188</v>
+        <v>4.95081926</v>
       </c>
       <c r="H154" t="n">
-        <v>0.04526625962461397</v>
+        <v>0.05049669294532073</v>
       </c>
       <c r="I154" t="n">
         <v>0.04323201609737448</v>
@@ -6972,7 +6972,7 @@
         <v>0.09344254694577137</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06778424549308951</v>
+        <v>0.06826241190349393</v>
       </c>
     </row>
     <row r="155">
@@ -6988,25 +6988,25 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>2014年报</t>
+          <t>2015年报</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>20150716</v>
+        <v>20160708</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>10送2股派2.5元(实施方案)</t>
+          <t>10派2.5元送2股(实施方案)</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G155" t="n">
-        <v>2.6766418</v>
+        <v>4.41830188</v>
       </c>
       <c r="H155" t="n">
-        <v>0.09340061864086557</v>
+        <v>0.04526625962461397</v>
       </c>
       <c r="I155" t="n">
         <v>0.04323201609737448</v>
@@ -7015,7 +7015,7 @@
         <v>0.09344254694577137</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06778424549308951</v>
+        <v>0.06826241190349393</v>
       </c>
     </row>
     <row r="156">
@@ -7031,25 +7031,25 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>2013年报</t>
+          <t>2014年报</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>20140716</v>
+        <v>20150716</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>10送2股派1.8元(实施方案)</t>
+          <t>10送2股派2.5元(实施方案)</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="G156" t="n">
-        <v>2.51688487</v>
+        <v>2.6766418</v>
       </c>
       <c r="H156" t="n">
-        <v>0.07151697804913897</v>
+        <v>0.09340061864086557</v>
       </c>
       <c r="I156" t="n">
         <v>0.04323201609737448</v>
@@ -7058,50 +7058,50 @@
         <v>0.09344254694577137</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06778424549308951</v>
+        <v>0.06826241190349393</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>SH601166</t>
+          <t>SH601169</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>兴业银行</t>
+          <t>北京银行</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>2023年报(未公布具体日期)</t>
+          <t>2013年报</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>20240403</v>
+        <v>20140716</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>10派10.4元(董事会预案)(未确定具体日期)</t>
+          <t>10送2股派1.8元(实施方案)</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1.04</v>
+        <v>0.18</v>
       </c>
       <c r="G157" t="n">
-        <v>15.73740413</v>
+        <v>2.51688487</v>
       </c>
       <c r="H157" t="n">
-        <v>0.06608459638000032</v>
+        <v>0.07151697804913897</v>
       </c>
       <c r="I157" t="n">
-        <v>0.007784924217038025</v>
+        <v>0.04323201609737448</v>
       </c>
       <c r="J157" t="n">
-        <v>0.09824501135468955</v>
+        <v>0.09344254694577137</v>
       </c>
       <c r="K157" t="n">
-        <v>0.0605294418693906</v>
+        <v>0.06826241190349393</v>
       </c>
     </row>
     <row r="158">
@@ -7117,25 +7117,25 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>2022年报</t>
+          <t>2023年报(未公布具体日期)</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>20230616</v>
+        <v>20240403</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>10派11.88元(实施方案)</t>
+          <t>10派10.4元(董事会预案)(未确定具体日期)</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1.188</v>
+        <v>1.04</v>
       </c>
       <c r="G158" t="n">
-        <v>17.13259545</v>
+        <v>15.73740413</v>
       </c>
       <c r="H158" t="n">
-        <v>0.0693415077398562</v>
+        <v>0.06608459638000032</v>
       </c>
       <c r="I158" t="n">
         <v>0.007784924217038025</v>
@@ -7160,25 +7160,25 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>2021年报</t>
+          <t>2022年报</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>20220615</v>
+        <v>20230616</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>10派10.35元(实施方案)</t>
+          <t>10派11.88元(实施方案)</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1.035</v>
+        <v>1.188</v>
       </c>
       <c r="G159" t="n">
-        <v>18.01795144</v>
+        <v>17.13259545</v>
       </c>
       <c r="H159" t="n">
-        <v>0.05744271225541719</v>
+        <v>0.0693415077398562</v>
       </c>
       <c r="I159" t="n">
         <v>0.007784924217038025</v>
@@ -7203,25 +7203,25 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>2020年报</t>
+          <t>2021年报</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>20210628</v>
+        <v>20220615</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>10派8.02元(实施方案)</t>
+          <t>10派10.35元(实施方案)</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0.8019999999999999</v>
+        <v>1.035</v>
       </c>
       <c r="G160" t="n">
-        <v>14.33938395</v>
+        <v>18.01795144</v>
       </c>
       <c r="H160" t="n">
-        <v>0.05592987835436263</v>
+        <v>0.05744271225541719</v>
       </c>
       <c r="I160" t="n">
         <v>0.007784924217038025</v>
@@ -7246,25 +7246,25 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>2019年报</t>
+          <t>2020年报</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>20200714</v>
+        <v>20210628</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>10派7.62元(实施方案)</t>
+          <t>10派8.02元(实施方案)</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0.762</v>
+        <v>0.8019999999999999</v>
       </c>
       <c r="G161" t="n">
-        <v>14.55376352</v>
+        <v>14.33938395</v>
       </c>
       <c r="H161" t="n">
-        <v>0.0523575911449192</v>
+        <v>0.05592987835436263</v>
       </c>
       <c r="I161" t="n">
         <v>0.007784924217038025</v>
@@ -7289,25 +7289,25 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>2018年报</t>
+          <t>2019年报</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>20190618</v>
+        <v>20200714</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>10派6.9元(实施方案)</t>
+          <t>10派7.62元(实施方案)</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0.6900000000000001</v>
+        <v>0.762</v>
       </c>
       <c r="G162" t="n">
-        <v>12.32118724</v>
+        <v>14.55376352</v>
       </c>
       <c r="H162" t="n">
-        <v>0.05600109685533843</v>
+        <v>0.0523575911449192</v>
       </c>
       <c r="I162" t="n">
         <v>0.007784924217038025</v>
@@ -7332,25 +7332,25 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>2017年报</t>
+          <t>2018年报</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>20180614</v>
+        <v>20190618</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>10派6.50元(实施方案)</t>
+          <t>10派6.9元(实施方案)</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0.65</v>
+        <v>0.6900000000000001</v>
       </c>
       <c r="G163" t="n">
-        <v>12.44405492</v>
+        <v>12.32118724</v>
       </c>
       <c r="H163" t="n">
-        <v>0.05223377783035371</v>
+        <v>0.05600109685533843</v>
       </c>
       <c r="I163" t="n">
         <v>0.007784924217038025</v>
@@ -7375,25 +7375,25 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>2016年报</t>
+          <t>2017年报</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>20170613</v>
+        <v>20180614</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>10派6.10元(实施方案)</t>
+          <t>10派6.50元(实施方案)</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0.61</v>
+        <v>0.65</v>
       </c>
       <c r="G164" t="n">
-        <v>11.19058075</v>
+        <v>12.44405492</v>
       </c>
       <c r="H164" t="n">
-        <v>0.0545101289761034</v>
+        <v>0.05223377783035371</v>
       </c>
       <c r="I164" t="n">
         <v>0.007784924217038025</v>
@@ -7418,11 +7418,11 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>2015年报</t>
+          <t>2016年报</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>20160603</v>
+        <v>20170613</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -7433,10 +7433,10 @@
         <v>0.61</v>
       </c>
       <c r="G165" t="n">
-        <v>11.29769631</v>
+        <v>11.19058075</v>
       </c>
       <c r="H165" t="n">
-        <v>0.05399330830481493</v>
+        <v>0.0545101289761034</v>
       </c>
       <c r="I165" t="n">
         <v>0.007784924217038025</v>
@@ -7461,25 +7461,25 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>2014年报</t>
+          <t>2015年报</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>20150526</v>
+        <v>20160603</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>10派5.7元(实施方案)</t>
+          <t>10派6.10元(实施方案)</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="G166" t="n">
-        <v>6.83390327</v>
+        <v>11.29769631</v>
       </c>
       <c r="H166" t="n">
-        <v>0.0834076774984847</v>
+        <v>0.05399330830481493</v>
       </c>
       <c r="I166" t="n">
         <v>0.007784924217038025</v>
@@ -7504,25 +7504,25 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>2013年报</t>
+          <t>2014年报</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>20140717</v>
+        <v>20150526</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>10派4.60元(实施方案)</t>
+          <t>10派5.7元(实施方案)</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>0.46</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="G167" t="n">
-        <v>7.12939706</v>
+        <v>6.83390327</v>
       </c>
       <c r="H167" t="n">
-        <v>0.06452158522364583</v>
+        <v>0.0834076774984847</v>
       </c>
       <c r="I167" t="n">
         <v>0.007784924217038025</v>
@@ -7537,44 +7537,44 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>SH601088</t>
+          <t>SH601166</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>中国神华</t>
+          <t>兴业银行</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>2023年报(未公布具体日期)</t>
+          <t>2013年报</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>20240403</v>
+        <v>20140717</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>10派22.6元(董事会预案)(未确定具体日期)</t>
+          <t>10派4.60元(实施方案)</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>2.26</v>
+        <v>0.46</v>
       </c>
       <c r="G168" t="n">
-        <v>28.19008802</v>
+        <v>7.12939706</v>
       </c>
       <c r="H168" t="n">
-        <v>0.08017002282492341</v>
+        <v>0.06452158522364583</v>
       </c>
       <c r="I168" t="n">
-        <v>0.2355046734975901</v>
+        <v>0.007784924217038025</v>
       </c>
       <c r="J168" t="n">
-        <v>0.1889291199723058</v>
+        <v>0.09824501135468955</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1008814279868843</v>
+        <v>0.0605294418693906</v>
       </c>
     </row>
     <row r="169">
@@ -7590,25 +7590,25 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>2022年报</t>
+          <t>2023年报(未公布具体日期)</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>20230704</v>
+        <v>20240403</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>10派25.5元(实施方案)</t>
+          <t>10派22.6元(董事会预案)(未确定具体日期)</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>2.55</v>
+        <v>2.26</v>
       </c>
       <c r="G169" t="n">
-        <v>25.77619793</v>
+        <v>28.19008802</v>
       </c>
       <c r="H169" t="n">
-        <v>0.0989284768422788</v>
+        <v>0.08017002282492341</v>
       </c>
       <c r="I169" t="n">
         <v>0.2355046734975901</v>
@@ -7633,25 +7633,25 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>2021年报</t>
+          <t>2022年报</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>20220708</v>
+        <v>20230704</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>10派25.4元(实施方案)</t>
+          <t>10派25.5元(实施方案)</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>2.54</v>
+        <v>2.55</v>
       </c>
       <c r="G170" t="n">
-        <v>15.90244568</v>
+        <v>25.77619793</v>
       </c>
       <c r="H170" t="n">
-        <v>0.1597238595315233</v>
+        <v>0.0989284768422788</v>
       </c>
       <c r="I170" t="n">
         <v>0.2355046734975901</v>
@@ -7676,25 +7676,25 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>2020年报</t>
+          <t>2021年报</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>20210709</v>
+        <v>20220708</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>10派18.1元(实施方案)</t>
+          <t>10派25.4元(实施方案)</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>1.81</v>
+        <v>2.54</v>
       </c>
       <c r="G171" t="n">
-        <v>12.36094815</v>
+        <v>15.90244568</v>
       </c>
       <c r="H171" t="n">
-        <v>0.1464288967185741</v>
+        <v>0.1597238595315233</v>
       </c>
       <c r="I171" t="n">
         <v>0.2355046734975901</v>
@@ -7719,25 +7719,25 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>2019年报</t>
+          <t>2020年报</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>20200612</v>
+        <v>20210709</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>10派12.6元(实施方案)</t>
+          <t>10派18.1元(实施方案)</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>1.26</v>
+        <v>1.81</v>
       </c>
       <c r="G172" t="n">
-        <v>13.22901352</v>
+        <v>12.36094815</v>
       </c>
       <c r="H172" t="n">
-        <v>0.09524519708858835</v>
+        <v>0.1464288967185741</v>
       </c>
       <c r="I172" t="n">
         <v>0.2355046734975901</v>
@@ -7762,25 +7762,25 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>2018年报</t>
+          <t>2019年报</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>20190705</v>
+        <v>20200612</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>10派8.8元(实施方案)</t>
+          <t>10派12.6元(实施方案)</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>0.8800000000000001</v>
+        <v>1.26</v>
       </c>
       <c r="G173" t="n">
-        <v>13.6772963</v>
+        <v>13.22901352</v>
       </c>
       <c r="H173" t="n">
-        <v>0.0643402015060535</v>
+        <v>0.09524519708858835</v>
       </c>
       <c r="I173" t="n">
         <v>0.2355046734975901</v>
@@ -7805,25 +7805,25 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>2017年报</t>
+          <t>2018年报</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>20180706</v>
+        <v>20190705</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>10派9.1元(实施方案)</t>
+          <t>10派8.8元(实施方案)</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0.9099999999999999</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="G174" t="n">
-        <v>12.02500389</v>
+        <v>13.6772963</v>
       </c>
       <c r="H174" t="n">
-        <v>0.07567565119515315</v>
+        <v>0.0643402015060535</v>
       </c>
       <c r="I174" t="n">
         <v>0.2355046734975901</v>
@@ -7848,25 +7848,25 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>2017-03-18</t>
+          <t>2017年报</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>20170707</v>
+        <v>20180706</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>10派25.1元(实施方案)</t>
+          <t>10派9.1元(实施方案)</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>2.51</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="G175" t="n">
         <v>12.02500389</v>
       </c>
       <c r="H175" t="n">
-        <v>0.2087317412086093</v>
+        <v>0.07567565119515315</v>
       </c>
       <c r="I175" t="n">
         <v>0.2355046734975901</v>
@@ -7891,7 +7891,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>2016年报</t>
+          <t>2017-03-18</t>
         </is>
       </c>
       <c r="D176" t="n">
@@ -7899,17 +7899,17 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>10派4.6元(实施方案)</t>
+          <t>10派25.1元(实施方案)</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>0.46</v>
+        <v>2.51</v>
       </c>
       <c r="G176" t="n">
-        <v>8.304445490000001</v>
+        <v>12.02500389</v>
       </c>
       <c r="H176" t="n">
-        <v>0.0553920187150268</v>
+        <v>0.2087317412086093</v>
       </c>
       <c r="I176" t="n">
         <v>0.2355046734975901</v>
@@ -7934,25 +7934,25 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>2015年报</t>
+          <t>2016年报</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>20160701</v>
+        <v>20170707</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>10派3.2元(实施方案)</t>
+          <t>10派4.6元(实施方案)</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>0.32</v>
+        <v>0.46</v>
       </c>
       <c r="G177" t="n">
-        <v>10.04661475</v>
+        <v>8.304445490000001</v>
       </c>
       <c r="H177" t="n">
-        <v>0.03185152491290661</v>
+        <v>0.0553920187150268</v>
       </c>
       <c r="I177" t="n">
         <v>0.2355046734975901</v>
@@ -7977,25 +7977,25 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>2014年报</t>
+          <t>2015年报</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>20150612</v>
+        <v>20160701</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>10派7.4元(实施方案)</t>
+          <t>10派3.2元(实施方案)</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>0.74</v>
+        <v>0.32</v>
       </c>
       <c r="G178" t="n">
-        <v>7.73608449</v>
+        <v>10.04661475</v>
       </c>
       <c r="H178" t="n">
-        <v>0.09565562539506339</v>
+        <v>0.03185152491290661</v>
       </c>
       <c r="I178" t="n">
         <v>0.2355046734975901</v>
@@ -8020,25 +8020,25 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>2013年报</t>
+          <t>2014年报</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>20140711</v>
+        <v>20150612</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>10派9.1元(实施方案)</t>
+          <t>10派7.4元(实施方案)</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0.9099999999999999</v>
+        <v>0.74</v>
       </c>
       <c r="G179" t="n">
-        <v>9.244780670000001</v>
+        <v>7.73608449</v>
       </c>
       <c r="H179" t="n">
-        <v>0.09843391990391048</v>
+        <v>0.09565562539506339</v>
       </c>
       <c r="I179" t="n">
         <v>0.2355046734975901</v>
@@ -8053,44 +8053,44 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>SH601009</t>
+          <t>SH601088</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>南京银行</t>
+          <t>中国神华</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>2022年报</t>
+          <t>2013年报</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>20230620</v>
+        <v>20140711</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>10派5.339元(实施方案)</t>
+          <t>10派9.1元(实施方案)</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>0.5339</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="G180" t="n">
-        <v>9.61304545</v>
+        <v>9.244780670000001</v>
       </c>
       <c r="H180" t="n">
-        <v>0.05553911117730127</v>
+        <v>0.09843391990391048</v>
       </c>
       <c r="I180" t="n">
-        <v>0.06673323175635448</v>
+        <v>0.2355046734975901</v>
       </c>
       <c r="J180" t="n">
-        <v>0.1619420672400376</v>
+        <v>0.1889291199723058</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08077842321529018</v>
+        <v>0.1008814279868843</v>
       </c>
     </row>
     <row r="181">
@@ -8106,25 +8106,25 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>2021年报</t>
+          <t>2022年报</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>20220616</v>
+        <v>20230620</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>10派4.6162元(实施方案)</t>
+          <t>10派5.339元(实施方案)</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>0.46162</v>
+        <v>0.5339</v>
       </c>
       <c r="G181" t="n">
-        <v>8.371348559999999</v>
+        <v>9.61304545</v>
       </c>
       <c r="H181" t="n">
-        <v>0.05514284785676157</v>
+        <v>0.05553911117730127</v>
       </c>
       <c r="I181" t="n">
         <v>0.06673323175635448</v>
@@ -8149,25 +8149,25 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>2020年报</t>
+          <t>2021年报</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>20210603</v>
+        <v>20220616</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>10派3.93元(实施方案)</t>
+          <t>10派4.6162元(实施方案)</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>0.393</v>
+        <v>0.46162</v>
       </c>
       <c r="G182" t="n">
-        <v>6.76959877</v>
+        <v>8.371348559999999</v>
       </c>
       <c r="H182" t="n">
-        <v>0.05805366216704155</v>
+        <v>0.05514284785676157</v>
       </c>
       <c r="I182" t="n">
         <v>0.06673323175635448</v>
@@ -8192,25 +8192,25 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>2019年报</t>
+          <t>2020年报</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>20200618</v>
+        <v>20210603</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>10派3.92元(实施方案)</t>
+          <t>10派3.93元(实施方案)</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0.392</v>
+        <v>0.393</v>
       </c>
       <c r="G183" t="n">
-        <v>6.53874016</v>
+        <v>6.76959877</v>
       </c>
       <c r="H183" t="n">
-        <v>0.05995038652828193</v>
+        <v>0.05805366216704155</v>
       </c>
       <c r="I183" t="n">
         <v>0.06673323175635448</v>
@@ -8235,11 +8235,11 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>2018年报</t>
+          <t>2019年报</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>20190730</v>
+        <v>20200618</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -8250,10 +8250,10 @@
         <v>0.392</v>
       </c>
       <c r="G184" t="n">
-        <v>6.01598354</v>
+        <v>6.53874016</v>
       </c>
       <c r="H184" t="n">
-        <v>0.06515975274759479</v>
+        <v>0.05995038652828193</v>
       </c>
       <c r="I184" t="n">
         <v>0.06673323175635448</v>
@@ -8278,25 +8278,25 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>2017年报</t>
+          <t>2018年报</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>20180807</v>
+        <v>20190730</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>10派3.45元(实施方案)</t>
+          <t>10派3.92元(实施方案)</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0.345</v>
+        <v>0.392</v>
       </c>
       <c r="G185" t="n">
-        <v>5.95232025</v>
+        <v>6.01598354</v>
       </c>
       <c r="H185" t="n">
-        <v>0.05796059108210786</v>
+        <v>0.06515975274759479</v>
       </c>
       <c r="I185" t="n">
         <v>0.06673323175635448</v>
@@ -8321,25 +8321,25 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>2016年报</t>
+          <t>2017年报</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>20170717</v>
+        <v>20180807</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>10转4股派2.6元(实施方案)</t>
+          <t>10派3.45元(实施方案)</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>0.26</v>
+        <v>0.345</v>
       </c>
       <c r="G186" t="n">
-        <v>5.0792377</v>
+        <v>5.95232025</v>
       </c>
       <c r="H186" t="n">
-        <v>0.0511887837027198</v>
+        <v>0.05796059108210786</v>
       </c>
       <c r="I186" t="n">
         <v>0.06673323175635448</v>
@@ -8364,25 +8364,25 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>2015年报</t>
+          <t>2016年报</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>20160606</v>
+        <v>20170717</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>10转8股派4元(实施方案)</t>
+          <t>10转4股派2.6元(实施方案)</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>0.4</v>
+        <v>0.26</v>
       </c>
       <c r="G187" t="n">
-        <v>4.53917782</v>
+        <v>5.0792377</v>
       </c>
       <c r="H187" t="n">
-        <v>0.0881216854377386</v>
+        <v>0.0511887837027198</v>
       </c>
       <c r="I187" t="n">
         <v>0.06673323175635448</v>
@@ -8407,25 +8407,25 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>2015中报</t>
+          <t>2015年报</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>20150922</v>
+        <v>20160606</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>10派5元(实施方案)</t>
+          <t>10转8股派4元(实施方案)</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G188" t="n">
         <v>4.53917782</v>
       </c>
       <c r="H188" t="n">
-        <v>0.1101521067971732</v>
+        <v>0.0881216854377386</v>
       </c>
       <c r="I188" t="n">
         <v>0.06673323175635448</v>
@@ -8450,25 +8450,25 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>2013年报</t>
+          <t>2015中报</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>20140724</v>
+        <v>20150922</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>10派4.6元(实施方案)</t>
+          <t>10派5元(实施方案)</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="G189" t="n">
-        <v>2.22743782</v>
+        <v>4.53917782</v>
       </c>
       <c r="H189" t="n">
-        <v>0.2065153046561811</v>
+        <v>0.1101521067971732</v>
       </c>
       <c r="I189" t="n">
         <v>0.06673323175635448</v>
@@ -8483,44 +8483,44 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>SH601006</t>
+          <t>SH601009</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>大秦铁路</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>2022年报</t>
+          <t>2013年报</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>20230712</v>
+        <v>20140724</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>10派4.8元(实施方案)</t>
+          <t>10派4.6元(实施方案)</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="G190" t="n">
-        <v>5.95191818</v>
+        <v>2.22743782</v>
       </c>
       <c r="H190" t="n">
-        <v>0.08064626990554496</v>
+        <v>0.2065153046561811</v>
       </c>
       <c r="I190" t="n">
-        <v>0.04171353962594448</v>
+        <v>0.06673323175635448</v>
       </c>
       <c r="J190" t="n">
-        <v>0.0744738170654593</v>
+        <v>0.1619420672400376</v>
       </c>
       <c r="K190" t="n">
-        <v>0.08628993555706582</v>
+        <v>0.08077842321529018</v>
       </c>
     </row>
     <row r="191">
@@ -8536,11 +8536,11 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>2021年报</t>
+          <t>2022年报</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>20220706</v>
+        <v>20230712</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -8551,10 +8551,10 @@
         <v>0.48</v>
       </c>
       <c r="G191" t="n">
-        <v>5.38593169</v>
+        <v>5.95191818</v>
       </c>
       <c r="H191" t="n">
-        <v>0.08912107089869163</v>
+        <v>0.08064626990554496</v>
       </c>
       <c r="I191" t="n">
         <v>0.04171353962594448</v>
@@ -8579,11 +8579,11 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>2020年报</t>
+          <t>2021年报</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>20210707</v>
+        <v>20220706</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -8594,10 +8594,10 @@
         <v>0.48</v>
       </c>
       <c r="G192" t="n">
-        <v>5.32528807</v>
+        <v>5.38593169</v>
       </c>
       <c r="H192" t="n">
-        <v>0.09013596892609041</v>
+        <v>0.08912107089869163</v>
       </c>
       <c r="I192" t="n">
         <v>0.04171353962594448</v>
@@ -8622,11 +8622,11 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>2019年报</t>
+          <t>2020年报</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>20200701</v>
+        <v>20210707</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -8637,10 +8637,10 @@
         <v>0.48</v>
       </c>
       <c r="G193" t="n">
-        <v>5.91707992</v>
+        <v>5.32528807</v>
       </c>
       <c r="H193" t="n">
-        <v>0.08112109460911253</v>
+        <v>0.09013596892609041</v>
       </c>
       <c r="I193" t="n">
         <v>0.04171353962594448</v>
@@ -8665,11 +8665,11 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>2018年报</t>
+          <t>2019年报</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>20190626</v>
+        <v>20200701</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -8680,10 +8680,10 @@
         <v>0.48</v>
       </c>
       <c r="G194" t="n">
-        <v>5.92467572</v>
+        <v>5.91707992</v>
       </c>
       <c r="H194" t="n">
-        <v>0.08101709235826328</v>
+        <v>0.08112109460911253</v>
       </c>
       <c r="I194" t="n">
         <v>0.04171353962594448</v>
@@ -8708,25 +8708,25 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>2017年报</t>
+          <t>2018年报</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>20180627</v>
+        <v>20190626</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>10派4.7元(实施方案)</t>
+          <t>10派4.8元(实施方案)</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="G195" t="n">
-        <v>5.49391844</v>
+        <v>5.92467572</v>
       </c>
       <c r="H195" t="n">
-        <v>0.08554914040551356</v>
+        <v>0.08101709235826328</v>
       </c>
       <c r="I195" t="n">
         <v>0.04171353962594448</v>
@@ -8751,25 +8751,25 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>2016年报</t>
+          <t>2017年报</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>20170628</v>
+        <v>20180627</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>10派2.5元(实施方案)</t>
+          <t>10派4.7元(实施方案)</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>0.25</v>
+        <v>0.47</v>
       </c>
       <c r="G196" t="n">
-        <v>4.20427664</v>
+        <v>5.49391844</v>
       </c>
       <c r="H196" t="n">
-        <v>0.05946326119967216</v>
+        <v>0.08554914040551356</v>
       </c>
       <c r="I196" t="n">
         <v>0.04171353962594448</v>
@@ -8794,25 +8794,25 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>2015年报</t>
+          <t>2016年报</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>20160706</v>
+        <v>20170628</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>10派4.5元(实施方案)</t>
+          <t>10派2.5元(实施方案)</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="G197" t="n">
-        <v>6.42109385</v>
+        <v>4.20427664</v>
       </c>
       <c r="H197" t="n">
-        <v>0.0700815173414729</v>
+        <v>0.05946326119967216</v>
       </c>
       <c r="I197" t="n">
         <v>0.04171353962594448</v>
@@ -8837,25 +8837,25 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>2014年报</t>
+          <t>2015年报</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>20150618</v>
+        <v>20160706</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>10派4.8元(实施方案)</t>
+          <t>10派4.5元(实施方案)</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="G198" t="n">
-        <v>4.28323388</v>
+        <v>6.42109385</v>
       </c>
       <c r="H198" t="n">
-        <v>0.112064858807103</v>
+        <v>0.0700815173414729</v>
       </c>
       <c r="I198" t="n">
         <v>0.04171353962594448</v>
@@ -8880,25 +8880,25 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>2013年报</t>
+          <t>2014年报</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>20140620</v>
+        <v>20150618</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>10派4.3元(实施方案)</t>
+          <t>10派4.8元(实施方案)</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>0.43</v>
+        <v>0.48</v>
       </c>
       <c r="G199" t="n">
-        <v>3.78191271</v>
+        <v>4.28323388</v>
       </c>
       <c r="H199" t="n">
-        <v>0.1136990811191938</v>
+        <v>0.112064858807103</v>
       </c>
       <c r="I199" t="n">
         <v>0.04171353962594448</v>
@@ -8913,42 +8913,44 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>SH600919</t>
+          <t>SH601006</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>大秦铁路</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>2022年报</t>
+          <t>2013年报</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>20230714</v>
+        <v>20140620</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>10派4.907元(实施方案)</t>
+          <t>10派4.3元(实施方案)</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>0.4907</v>
+        <v>0.43</v>
       </c>
       <c r="G200" t="n">
-        <v>6.39589545</v>
+        <v>3.78191271</v>
       </c>
       <c r="H200" t="n">
-        <v>0.07672107898511693</v>
+        <v>0.1136990811191938</v>
       </c>
       <c r="I200" t="n">
-        <v>0.08529279636859255</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
+        <v>0.04171353962594448</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.0744738170654593</v>
+      </c>
       <c r="K200" t="n">
-        <v>0.05571671971768285</v>
+        <v>0.08628993555706582</v>
       </c>
     </row>
     <row r="201">
@@ -8964,25 +8966,25 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>2021年报</t>
+          <t>2022年报</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>20220525</v>
+        <v>20230714</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>10派4元(实施方案)</t>
+          <t>10派4.907元(实施方案)</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>0.4</v>
+        <v>0.4907</v>
       </c>
       <c r="G201" t="n">
-        <v>5.51384239</v>
+        <v>6.39589545</v>
       </c>
       <c r="H201" t="n">
-        <v>0.07254469237739675</v>
+        <v>0.07672107898511693</v>
       </c>
       <c r="I201" t="n">
         <v>0.08529279636859255</v>
@@ -9005,25 +9007,25 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>2020年报</t>
+          <t>2021年报</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>20210617</v>
+        <v>20220525</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>10派3.16元(实施方案)</t>
+          <t>10派4元(实施方案)</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>0.316</v>
+        <v>0.4</v>
       </c>
       <c r="G202" t="n">
-        <v>4.86374093</v>
+        <v>5.51384239</v>
       </c>
       <c r="H202" t="n">
-        <v>0.06497056577394636</v>
+        <v>0.07254469237739675</v>
       </c>
       <c r="I202" t="n">
         <v>0.08529279636859255</v>
@@ -9046,25 +9048,25 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>2019年报</t>
+          <t>2020年报</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>20200623</v>
+        <v>20210617</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>10派2.78元(实施方案)</t>
+          <t>10派3.16元(实施方案)</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>0.278</v>
+        <v>0.316</v>
       </c>
       <c r="G203" t="n">
-        <v>5.1705791</v>
+        <v>4.86374093</v>
       </c>
       <c r="H203" t="n">
-        <v>0.05376573776813509</v>
+        <v>0.06497056577394636</v>
       </c>
       <c r="I203" t="n">
         <v>0.08529279636859255</v>
@@ -9087,25 +9089,25 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>2018年报</t>
+          <t>2019年报</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>20190711</v>
+        <v>20200623</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>10派3.40元(实施方案)</t>
+          <t>10派2.78元(实施方案)</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>0.34</v>
+        <v>0.278</v>
       </c>
       <c r="G204" t="n">
-        <v>4.86438889</v>
+        <v>5.1705791</v>
       </c>
       <c r="H204" t="n">
-        <v>0.06989572743638102</v>
+        <v>0.05376573776813509</v>
       </c>
       <c r="I204" t="n">
         <v>0.08529279636859255</v>
@@ -9128,25 +9130,25 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>2017年报</t>
+          <t>2018年报</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>20180709</v>
+        <v>20190711</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>10派1.80元(实施方案)</t>
+          <t>10派3.40元(实施方案)</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>0.18</v>
+        <v>0.34</v>
       </c>
       <c r="G205" t="n">
-        <v>6.29884426</v>
+        <v>4.86438889</v>
       </c>
       <c r="H205" t="n">
-        <v>0.02857667098440056</v>
+        <v>0.06989572743638102</v>
       </c>
       <c r="I205" t="n">
         <v>0.08529279636859255</v>
@@ -9169,25 +9171,25 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>2016年报</t>
+          <t>2017年报</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>20170605</v>
+        <v>20180709</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>10派1.78元(实施方案)</t>
+          <t>10派1.80元(实施方案)</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>0.178</v>
+        <v>0.18</v>
       </c>
       <c r="G206" t="n">
-        <v>7.56077353</v>
+        <v>6.29884426</v>
       </c>
       <c r="H206" t="n">
-        <v>0.02354256469840329</v>
+        <v>0.02857667098440056</v>
       </c>
       <c r="I206" t="n">
         <v>0.08529279636859255</v>
@@ -9200,44 +9202,42 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>SH600741</t>
+          <t>SH600919</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>华域汽车</t>
+          <t>江苏银行</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>2023年报(未公布具体日期)</t>
+          <t>2016年报</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>20240403</v>
+        <v>20170605</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>10派7.5元(董事会预案)(未确定具体日期)</t>
+          <t>10派1.78元(实施方案)</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>0.75</v>
+        <v>0.178</v>
       </c>
       <c r="G207" t="n">
-        <v>17.43504504</v>
+        <v>7.56077353</v>
       </c>
       <c r="H207" t="n">
-        <v>0.04301680886280063</v>
+        <v>0.02354256469840329</v>
       </c>
       <c r="I207" t="n">
-        <v>-0.01527033067056016</v>
-      </c>
-      <c r="J207" t="n">
-        <v>0.1067021923191451</v>
-      </c>
+        <v>0.08529279636859255</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="n">
-        <v>0.05756938901985451</v>
+        <v>0.05571671971768285</v>
       </c>
     </row>
     <row r="208">
@@ -9253,25 +9253,25 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>2022年报</t>
+          <t>2023年报(未公布具体日期)</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>20230713</v>
+        <v>20240403</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>10派8.8元(实施方案)</t>
+          <t>10派7.5元(董事会预案)(未确定具体日期)</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="G208" t="n">
-        <v>19.46647314</v>
+        <v>17.43504504</v>
       </c>
       <c r="H208" t="n">
-        <v>0.04520592886400993</v>
+        <v>0.04301680886280063</v>
       </c>
       <c r="I208" t="n">
         <v>-0.01527033067056016</v>
@@ -9296,25 +9296,25 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>2021年报</t>
+          <t>2022年报</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>20220714</v>
+        <v>20230713</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>10派8.5元(实施方案)</t>
+          <t>10派8.8元(实施方案)</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>0.85</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="G209" t="n">
-        <v>23.04960947</v>
+        <v>19.46647314</v>
       </c>
       <c r="H209" t="n">
-        <v>0.03687698054521529</v>
+        <v>0.04520592886400993</v>
       </c>
       <c r="I209" t="n">
         <v>-0.01527033067056016</v>
@@ -9339,25 +9339,25 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>2020年报</t>
+          <t>2021年报</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>20210729</v>
+        <v>20220714</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>10派7.50元(实施方案)</t>
+          <t>10派8.5元(实施方案)</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="G210" t="n">
-        <v>21.84417243</v>
+        <v>23.04960947</v>
       </c>
       <c r="H210" t="n">
-        <v>0.0343340999712114</v>
+        <v>0.03687698054521529</v>
       </c>
       <c r="I210" t="n">
         <v>-0.01527033067056016</v>
@@ -9382,25 +9382,25 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>2019年报</t>
+          <t>2020年报</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>20200716</v>
+        <v>20210729</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>10派8.50元(实施方案)</t>
+          <t>10派7.50元(实施方案)</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="G211" t="n">
-        <v>18.68032377</v>
+        <v>21.84417243</v>
       </c>
       <c r="H211" t="n">
-        <v>0.04550242332336191</v>
+        <v>0.0343340999712114</v>
       </c>
       <c r="I211" t="n">
         <v>-0.01527033067056016</v>
@@ -9425,25 +9425,25 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>2018年报</t>
+          <t>2019年报</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>20190722</v>
+        <v>20200716</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>10派10.5元(实施方案)</t>
+          <t>10派8.50元(实施方案)</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>1.05</v>
+        <v>0.85</v>
       </c>
       <c r="G212" t="n">
-        <v>17.83728272</v>
+        <v>18.68032377</v>
       </c>
       <c r="H212" t="n">
-        <v>0.05886546827127938</v>
+        <v>0.04550242332336191</v>
       </c>
       <c r="I212" t="n">
         <v>-0.01527033067056016</v>
@@ -9468,25 +9468,25 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>2017年报</t>
+          <t>2018年报</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>20180713</v>
+        <v>20190722</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>10派10.50元(实施方案)</t>
+          <t>10派10.5元(实施方案)</t>
         </is>
       </c>
       <c r="F213" t="n">
         <v>1.05</v>
       </c>
       <c r="G213" t="n">
-        <v>16.01900656</v>
+        <v>17.83728272</v>
       </c>
       <c r="H213" t="n">
-        <v>0.0655471359017909</v>
+        <v>0.05886546827127938</v>
       </c>
       <c r="I213" t="n">
         <v>-0.01527033067056016</v>
@@ -9511,25 +9511,25 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>2016年报</t>
+          <t>2017年报</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>20170707</v>
+        <v>20180713</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>10派10.00元(实施方案)</t>
+          <t>10派10.50元(实施方案)</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="G214" t="n">
-        <v>11.03388484</v>
+        <v>16.01900656</v>
       </c>
       <c r="H214" t="n">
-        <v>0.09062991090633858</v>
+        <v>0.0655471359017909</v>
       </c>
       <c r="I214" t="n">
         <v>-0.01527033067056016</v>
@@ -9554,25 +9554,25 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>2015年报</t>
+          <t>2016年报</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>20160622</v>
+        <v>20170707</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>10派8.10元(实施方案)</t>
+          <t>10派10.00元(实施方案)</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>0.8099999999999999</v>
+        <v>1</v>
       </c>
       <c r="G215" t="n">
-        <v>12.23077269</v>
+        <v>11.03388484</v>
       </c>
       <c r="H215" t="n">
-        <v>0.06622639636351543</v>
+        <v>0.09062991090633858</v>
       </c>
       <c r="I215" t="n">
         <v>-0.01527033067056016</v>
@@ -9597,25 +9597,25 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>2014年报</t>
+          <t>2015年报</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>20150722</v>
+        <v>20160622</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>10派5.20元(实施方案)</t>
+          <t>10派8.10元(实施方案)</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>0.52</v>
+        <v>0.8099999999999999</v>
       </c>
       <c r="G216" t="n">
-        <v>7.49425347</v>
+        <v>12.23077269</v>
       </c>
       <c r="H216" t="n">
-        <v>0.06938649754529853</v>
+        <v>0.06622639636351543</v>
       </c>
       <c r="I216" t="n">
         <v>-0.01527033067056016</v>
@@ -9640,25 +9640,25 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>2013年报</t>
+          <t>2014年报</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>20140807</v>
+        <v>20150722</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>10派4.7元(实施方案)</t>
+          <t>10派5.20元(实施方案)</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>0.47</v>
+        <v>0.52</v>
       </c>
       <c r="G217" t="n">
-        <v>6.05111555</v>
+        <v>7.49425347</v>
       </c>
       <c r="H217" t="n">
-        <v>0.07767162866357759</v>
+        <v>0.06938649754529853</v>
       </c>
       <c r="I217" t="n">
         <v>-0.01527033067056016</v>
@@ -9673,44 +9673,44 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>SH600585</t>
+          <t>SH600741</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>海螺水泥</t>
+          <t>华域汽车</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>2023年报(未公布具体日期)</t>
+          <t>2013年报</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>20240403</v>
+        <v>20140807</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>10派9.6元(董事会预案)(未确定具体日期)</t>
+          <t>10派4.7元(实施方案)</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>0.96</v>
+        <v>0.47</v>
       </c>
       <c r="G218" t="n">
-        <v>25.45615331</v>
+        <v>6.05111555</v>
       </c>
       <c r="H218" t="n">
-        <v>0.03771190361361003</v>
+        <v>0.07767162866357759</v>
       </c>
       <c r="I218" t="n">
-        <v>-0.07004954577516498</v>
+        <v>-0.01527033067056016</v>
       </c>
       <c r="J218" t="n">
-        <v>0.06816063176327258</v>
+        <v>0.1067021923191451</v>
       </c>
       <c r="K218" t="n">
-        <v>0.04976945556777386</v>
+        <v>0.05756938901985451</v>
       </c>
     </row>
     <row r="219">
@@ -9726,25 +9726,25 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>2022年报</t>
+          <t>2023年报(未公布具体日期)</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>20230619</v>
+        <v>20240403</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>10派14.8元(实施方案)</t>
+          <t>10派9.6元(董事会预案)(未确定具体日期)</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>1.48</v>
+        <v>0.96</v>
       </c>
       <c r="G219" t="n">
-        <v>31.36053843</v>
+        <v>25.45615331</v>
       </c>
       <c r="H219" t="n">
-        <v>0.04719306727795872</v>
+        <v>0.03771190361361003</v>
       </c>
       <c r="I219" t="n">
         <v>-0.07004954577516498</v>
@@ -9769,25 +9769,25 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>2021年报</t>
+          <t>2022年报</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>20220620</v>
+        <v>20230619</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>10派23.8元(实施方案)</t>
+          <t>10派14.8元(实施方案)</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>2.38</v>
+        <v>1.48</v>
       </c>
       <c r="G220" t="n">
-        <v>39.00801728</v>
+        <v>31.36053843</v>
       </c>
       <c r="H220" t="n">
-        <v>0.06101309848476359</v>
+        <v>0.04719306727795872</v>
       </c>
       <c r="I220" t="n">
         <v>-0.07004954577516498</v>
@@ -9812,25 +9812,25 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>2020年报</t>
+          <t>2021年报</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>20210616</v>
+        <v>20220620</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>10派21.2元(实施方案)</t>
+          <t>10派23.8元(实施方案)</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>2.12</v>
+        <v>2.38</v>
       </c>
       <c r="G221" t="n">
-        <v>46.56644115</v>
+        <v>39.00801728</v>
       </c>
       <c r="H221" t="n">
-        <v>0.04552634789442139</v>
+        <v>0.06101309848476359</v>
       </c>
       <c r="I221" t="n">
         <v>-0.07004954577516498</v>
@@ -9855,25 +9855,25 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>2019年报</t>
+          <t>2020年报</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>20200617</v>
+        <v>20210616</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>10派20元(实施方案)</t>
+          <t>10派21.2元(实施方案)</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="G222" t="n">
-        <v>32.07024918</v>
+        <v>46.56644115</v>
       </c>
       <c r="H222" t="n">
-        <v>0.0623630951158079</v>
+        <v>0.04552634789442139</v>
       </c>
       <c r="I222" t="n">
         <v>-0.07004954577516498</v>
@@ -9898,25 +9898,25 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>2018年报</t>
+          <t>2019年报</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>20190618</v>
+        <v>20200617</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>10派16.9元(实施方案)</t>
+          <t>10派20元(实施方案)</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="G223" t="n">
-        <v>26.02153704</v>
+        <v>32.07024918</v>
       </c>
       <c r="H223" t="n">
-        <v>0.0649462019634794</v>
+        <v>0.0623630951158079</v>
       </c>
       <c r="I223" t="n">
         <v>-0.07004954577516498</v>
@@ -9941,25 +9941,25 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>2017年报</t>
+          <t>2018年报</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>20180619</v>
+        <v>20190618</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>10派12元(实施方案)</t>
+          <t>10派16.9元(实施方案)</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>1.2</v>
+        <v>1.69</v>
       </c>
       <c r="G224" t="n">
-        <v>17.3171541</v>
+        <v>26.02153704</v>
       </c>
       <c r="H224" t="n">
-        <v>0.06929545080389392</v>
+        <v>0.0649462019634794</v>
       </c>
       <c r="I224" t="n">
         <v>-0.07004954577516498</v>
@@ -9984,25 +9984,25 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>2016年报</t>
+          <t>2017年报</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>20170620</v>
+        <v>20180619</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>10派5元(实施方案)</t>
+          <t>10派12元(实施方案)</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="G225" t="n">
-        <v>11.67042213</v>
+        <v>17.3171541</v>
       </c>
       <c r="H225" t="n">
-        <v>0.04284335171687573</v>
+        <v>0.06929545080389392</v>
       </c>
       <c r="I225" t="n">
         <v>-0.07004954577516498</v>
@@ -10027,25 +10027,25 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>2015年报</t>
+          <t>2016年报</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>20160621</v>
+        <v>20170620</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>10派4.3元(实施方案)</t>
+          <t>10派5元(实施方案)</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="G226" t="n">
-        <v>14.45955369</v>
+        <v>11.67042213</v>
       </c>
       <c r="H226" t="n">
-        <v>0.02973812395726856</v>
+        <v>0.04284335171687573</v>
       </c>
       <c r="I226" t="n">
         <v>-0.07004954577516498</v>
@@ -10070,25 +10070,25 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>2014年报</t>
+          <t>2015年报</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>20150618</v>
+        <v>20160621</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>10派6.5元(实施方案)</t>
+          <t>10派4.3元(实施方案)</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>0.65</v>
+        <v>0.43</v>
       </c>
       <c r="G227" t="n">
-        <v>11.63780549</v>
+        <v>14.45955369</v>
       </c>
       <c r="H227" t="n">
-        <v>0.05585245436165131</v>
+        <v>0.02973812395726856</v>
       </c>
       <c r="I227" t="n">
         <v>-0.07004954577516498</v>
@@ -10113,25 +10113,25 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>2013年报</t>
+          <t>2014年报</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>20140617</v>
+        <v>20150618</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>10派3.5元(实施方案)</t>
+          <t>10派6.5元(实施方案)</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>0.35</v>
+        <v>0.65</v>
       </c>
       <c r="G228" t="n">
-        <v>11.29727731</v>
+        <v>11.63780549</v>
       </c>
       <c r="H228" t="n">
-        <v>0.03098091605578194</v>
+        <v>0.05585245436165131</v>
       </c>
       <c r="I228" t="n">
         <v>-0.07004954577516498</v>
@@ -10146,44 +10146,44 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>SH600438</t>
+          <t>SH600585</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>通威股份</t>
+          <t>海螺水泥</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>2022年报</t>
+          <t>2013年报</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>20230530</v>
+        <v>20140617</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>10派28.58元(实施方案)</t>
+          <t>10派3.5元(实施方案)</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>2.858</v>
+        <v>0.35</v>
       </c>
       <c r="G229" t="n">
-        <v>42.87085331</v>
+        <v>11.29727731</v>
       </c>
       <c r="H229" t="n">
-        <v>0.06666533972005979</v>
+        <v>0.03098091605578194</v>
       </c>
       <c r="I229" t="n">
-        <v>0.1589148876582052</v>
+        <v>-0.07004954577516498</v>
       </c>
       <c r="J229" t="n">
-        <v>0.2201784814407368</v>
+        <v>0.06816063176327258</v>
       </c>
       <c r="K229" t="n">
-        <v>0.03688211283492587</v>
+        <v>0.04976945556777386</v>
       </c>
     </row>
     <row r="230">
@@ -10199,25 +10199,25 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>2021年报</t>
+          <t>2022年报</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>20220527</v>
+        <v>20230530</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>10派9.12元(实施方案)</t>
+          <t>10派28.58元(实施方案)</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>0.9119999999999999</v>
+        <v>2.858</v>
       </c>
       <c r="G230" t="n">
-        <v>39.45436008</v>
+        <v>42.87085331</v>
       </c>
       <c r="H230" t="n">
-        <v>0.02311531597903944</v>
+        <v>0.06666533972005979</v>
       </c>
       <c r="I230" t="n">
         <v>0.1589148876582052</v>
@@ -10242,25 +10242,25 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>2020年报</t>
+          <t>2021年报</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>20210520</v>
+        <v>20220527</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>10派2.41元(实施方案)</t>
+          <t>10派9.12元(实施方案)</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>0.241</v>
+        <v>0.9119999999999999</v>
       </c>
       <c r="G231" t="n">
-        <v>19.02477119</v>
+        <v>39.45436008</v>
       </c>
       <c r="H231" t="n">
-        <v>0.01266769505888602</v>
+        <v>0.02311531597903944</v>
       </c>
       <c r="I231" t="n">
         <v>0.1589148876582052</v>
@@ -10285,25 +10285,25 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>2019年报</t>
+          <t>2020年报</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>20200525</v>
+        <v>20210520</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>10派1.86元(实施方案)</t>
+          <t>10派2.41元(实施方案)</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>0.186</v>
+        <v>0.241</v>
       </c>
       <c r="G232" t="n">
-        <v>11.55603402</v>
+        <v>19.02477119</v>
       </c>
       <c r="H232" t="n">
-        <v>0.01609548740321206</v>
+        <v>0.01266769505888602</v>
       </c>
       <c r="I232" t="n">
         <v>0.1589148876582052</v>
@@ -10328,25 +10328,25 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>2018年报</t>
+          <t>2019年报</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>20190522</v>
+        <v>20200525</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>10派1.60元(实施方案)</t>
+          <t>10派1.86元(实施方案)</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>0.16</v>
+        <v>0.186</v>
       </c>
       <c r="G233" t="n">
-        <v>7.61509918</v>
+        <v>11.55603402</v>
       </c>
       <c r="H233" t="n">
-        <v>0.0210108885279154</v>
+        <v>0.01609548740321206</v>
       </c>
       <c r="I233" t="n">
         <v>0.1589148876582052</v>
@@ -10371,11 +10371,11 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>2017年报</t>
+          <t>2018年报</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>20180503</v>
+        <v>20190522</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -10386,10 +10386,10 @@
         <v>0.16</v>
       </c>
       <c r="G234" t="n">
-        <v>6.61464262</v>
+        <v>7.61509918</v>
       </c>
       <c r="H234" t="n">
-        <v>0.02418875957352931</v>
+        <v>0.0210108885279154</v>
       </c>
       <c r="I234" t="n">
         <v>0.1589148876582052</v>
@@ -10414,25 +10414,25 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>2016年报</t>
+          <t>2017年报</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>20170614</v>
+        <v>20180503</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>10派0.80元(实施方案)</t>
+          <t>10派1.60元(实施方案)</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="G235" t="n">
-        <v>5.36698674</v>
+        <v>6.61464262</v>
       </c>
       <c r="H235" t="n">
-        <v>0.0149059432928653</v>
+        <v>0.02418875957352931</v>
       </c>
       <c r="I235" t="n">
         <v>0.1589148876582052</v>
@@ -10457,25 +10457,25 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>2015年报</t>
+          <t>2016年报</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>20160518</v>
+        <v>20170614</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>10送6股转4股派1.2元(实施方案)</t>
+          <t>10派0.80元(实施方案)</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="G236" t="n">
-        <v>5.7640303</v>
+        <v>5.36698674</v>
       </c>
       <c r="H236" t="n">
-        <v>0.02081876634132197</v>
+        <v>0.0149059432928653</v>
       </c>
       <c r="I236" t="n">
         <v>0.1589148876582052</v>
@@ -10500,25 +10500,25 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>2014年报</t>
+          <t>2015年报</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>20150518</v>
+        <v>20160518</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>10派2元(实施方案)</t>
+          <t>10送6股转4股派1.2元(实施方案)</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G237" t="n">
-        <v>3.87233184</v>
+        <v>5.7640303</v>
       </c>
       <c r="H237" t="n">
-        <v>0.05164846616037948</v>
+        <v>0.02081876634132197</v>
       </c>
       <c r="I237" t="n">
         <v>0.1589148876582052</v>
@@ -10543,25 +10543,25 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>2013年报</t>
+          <t>2014年报</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>20140616</v>
+        <v>20150518</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>10派3元(实施方案)</t>
+          <t>10派2元(实施方案)</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="G238" t="n">
-        <v>2.5487563</v>
+        <v>3.87233184</v>
       </c>
       <c r="H238" t="n">
-        <v>0.11770446629205</v>
+        <v>0.05164846616037948</v>
       </c>
       <c r="I238" t="n">
         <v>0.1589148876582052</v>
@@ -10576,44 +10576,44 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>SH600188</t>
+          <t>SH600438</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>兖矿能源</t>
+          <t>通威股份</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>2023年报(未公布具体日期)</t>
+          <t>2013年报</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>20240403</v>
+        <v>20140616</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>10送3.0股派14.9元(董事会预案)(未确定具体日期)</t>
+          <t>10派3元(实施方案)</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>1.49</v>
+        <v>0.3</v>
       </c>
       <c r="G239" t="n">
-        <v>19.16436694</v>
+        <v>2.5487563</v>
       </c>
       <c r="H239" t="n">
-        <v>0.0777484591411189</v>
+        <v>0.11770446629205</v>
       </c>
       <c r="I239" t="n">
-        <v>0.3816787597161861</v>
+        <v>0.1589148876582052</v>
       </c>
       <c r="J239" t="n">
-        <v>0.2535079997969631</v>
+        <v>0.2201784814407368</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1070637728613454</v>
+        <v>0.03688211283492587</v>
       </c>
     </row>
     <row r="240">
@@ -10629,25 +10629,25 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>2022年报</t>
+          <t>2023年报(未公布具体日期)</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>20230714</v>
+        <v>20240403</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>10送5.0股派43元(实施方案)</t>
+          <t>10送3.0股派14.9元(董事会预案)(未确定具体日期)</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>4.3</v>
+        <v>1.49</v>
       </c>
       <c r="G240" t="n">
-        <v>21.62283017</v>
+        <v>19.16436694</v>
       </c>
       <c r="H240" t="n">
-        <v>0.1988638844310915</v>
+        <v>0.0777484591411189</v>
       </c>
       <c r="I240" t="n">
         <v>0.3816787597161861</v>
@@ -10672,25 +10672,25 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>2021年报</t>
+          <t>2022年报</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>20220713</v>
+        <v>20230714</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>10派20元(实施方案)</t>
+          <t>10送5.0股派43元(实施方案)</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="G241" t="n">
-        <v>9.647725510000001</v>
+        <v>21.62283017</v>
       </c>
       <c r="H241" t="n">
-        <v>0.2073027469455855</v>
+        <v>0.1988638844310915</v>
       </c>
       <c r="I241" t="n">
         <v>0.3816787597161861</v>
@@ -10715,25 +10715,25 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>2020年报</t>
+          <t>2021年报</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>20210722</v>
+        <v>20220713</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>10派10元(实施方案)</t>
+          <t>10派20元(实施方案)</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G242" t="n">
-        <v>4.72952428</v>
+        <v>9.647725510000001</v>
       </c>
       <c r="H242" t="n">
-        <v>0.2114377558497279</v>
+        <v>0.2073027469455855</v>
       </c>
       <c r="I242" t="n">
         <v>0.3816787597161861</v>
@@ -10758,25 +10758,25 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>2019年报</t>
+          <t>2020年报</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>20200706</v>
+        <v>20210722</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>10派5.80元(实施方案)</t>
+          <t>10派10元(实施方案)</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="G243" t="n">
-        <v>4.50735246</v>
+        <v>4.72952428</v>
       </c>
       <c r="H243" t="n">
-        <v>0.1286786434269664</v>
+        <v>0.2114377558497279</v>
       </c>
       <c r="I243" t="n">
         <v>0.3816787597161861</v>
@@ -10801,25 +10801,25 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>2019中报</t>
+          <t>2019年报</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>20191118</v>
+        <v>20200706</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>10派10元(实施方案)</t>
+          <t>10派5.80元(实施方案)</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="G244" t="n">
         <v>4.50735246</v>
       </c>
       <c r="H244" t="n">
-        <v>0.2218597300464939</v>
+        <v>0.1286786434269664</v>
       </c>
       <c r="I244" t="n">
         <v>0.3816787597161861</v>
@@ -10844,25 +10844,25 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>2018年报</t>
+          <t>2019中报</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>20190610</v>
+        <v>20191118</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>10派5.4元(实施方案)</t>
+          <t>10派10元(实施方案)</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>0.54</v>
+        <v>1</v>
       </c>
       <c r="G245" t="n">
-        <v>5.29761605</v>
+        <v>4.50735246</v>
       </c>
       <c r="H245" t="n">
-        <v>0.1019326419475039</v>
+        <v>0.2218597300464939</v>
       </c>
       <c r="I245" t="n">
         <v>0.3816787597161861</v>
@@ -10887,25 +10887,25 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>2017年报</t>
+          <t>2018年报</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>20180608</v>
+        <v>20190610</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>10派4.80元(实施方案)</t>
+          <t>10派5.4元(实施方案)</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
       <c r="G246" t="n">
-        <v>4.91098566</v>
+        <v>5.29761605</v>
       </c>
       <c r="H246" t="n">
-        <v>0.09774005326661858</v>
+        <v>0.1019326419475039</v>
       </c>
       <c r="I246" t="n">
         <v>0.3816787597161861</v>
@@ -10930,25 +10930,25 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>2016年报</t>
+          <t>2017年报</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>20170713</v>
+        <v>20180608</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>10派1.20元(实施方案)</t>
+          <t>10派4.80元(实施方案)</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>0.12</v>
+        <v>0.48</v>
       </c>
       <c r="G247" t="n">
-        <v>4.43989218</v>
+        <v>4.91098566</v>
       </c>
       <c r="H247" t="n">
-        <v>0.02702768336144595</v>
+        <v>0.09774005326661858</v>
       </c>
       <c r="I247" t="n">
         <v>0.3816787597161861</v>
@@ -10973,25 +10973,25 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>2015年报</t>
+          <t>2016年报</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>20160629</v>
+        <v>20170713</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>10派0.1元(实施方案)</t>
+          <t>10派1.20元(实施方案)</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="G248" t="n">
-        <v>5.00306885</v>
+        <v>4.43989218</v>
       </c>
       <c r="H248" t="n">
-        <v>0.001998773212965078</v>
+        <v>0.02702768336144595</v>
       </c>
       <c r="I248" t="n">
         <v>0.3816787597161861</v>
@@ -11016,25 +11016,25 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>2014年报</t>
+          <t>2015年报</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>20150617</v>
+        <v>20160629</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>10派0.2元(实施方案)</t>
+          <t>10派0.1元(实施方案)</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G249" t="n">
-        <v>3.1932832</v>
+        <v>5.00306885</v>
       </c>
       <c r="H249" t="n">
-        <v>0.006263146344176426</v>
+        <v>0.001998773212965078</v>
       </c>
       <c r="I249" t="n">
         <v>0.3816787597161861</v>
@@ -11059,11 +11059,11 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>2013年报</t>
+          <t>2014年报</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>20140618</v>
+        <v>20150617</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -11074,10 +11074,10 @@
         <v>0.02</v>
       </c>
       <c r="G250" t="n">
-        <v>5.11279286</v>
+        <v>3.1932832</v>
       </c>
       <c r="H250" t="n">
-        <v>0.003911756362451187</v>
+        <v>0.006263146344176426</v>
       </c>
       <c r="I250" t="n">
         <v>0.3816787597161861</v>
@@ -11092,44 +11092,44 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>SH600089</t>
+          <t>SH600188</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>特变电工</t>
+          <t>兖矿能源</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>2023年报(未公布具体日期)</t>
+          <t>2013年报</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>20240403</v>
+        <v>20140618</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>10派2元(董事会预案)(未确定具体日期)</t>
+          <t>10派0.2元(实施方案)</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="G251" t="n">
-        <v>15.34332562</v>
+        <v>5.11279286</v>
       </c>
       <c r="H251" t="n">
-        <v>0.01303498374167986</v>
+        <v>0.003911756362451187</v>
       </c>
       <c r="I251" t="n">
-        <v>0.2200393362033886</v>
+        <v>0.3816787597161861</v>
       </c>
       <c r="J251" t="n">
-        <v>0.1121079924876391</v>
+        <v>0.2535079997969631</v>
       </c>
       <c r="K251" t="n">
-        <v>0.03538243008754582</v>
+        <v>0.1070637728613454</v>
       </c>
     </row>
     <row r="252">
@@ -11145,25 +11145,25 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>2022年报</t>
+          <t>2023年报(未公布具体日期)</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>20230717</v>
+        <v>20240403</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>10转3股派11.2元(实施方案)</t>
+          <t>10派2元(董事会预案)(未确定具体日期)</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>1.12</v>
+        <v>0.2</v>
       </c>
       <c r="G252" t="n">
-        <v>16.04035496</v>
+        <v>15.34332562</v>
       </c>
       <c r="H252" t="n">
-        <v>0.06982389122890083</v>
+        <v>0.01303498374167986</v>
       </c>
       <c r="I252" t="n">
         <v>0.2200393362033886</v>
@@ -11188,25 +11188,25 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>2021年报</t>
+          <t>2022年报</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>20220622</v>
+        <v>20230717</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>10派5.8元(实施方案)</t>
+          <t>10转3股派11.2元(实施方案)</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>0.58</v>
+        <v>1.12</v>
       </c>
       <c r="G253" t="n">
-        <v>11.73944444</v>
+        <v>16.04035496</v>
       </c>
       <c r="H253" t="n">
-        <v>0.04940608586414503</v>
+        <v>0.06982389122890083</v>
       </c>
       <c r="I253" t="n">
         <v>0.2200393362033886</v>
@@ -11231,25 +11231,25 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>2020年报</t>
+          <t>2021年报</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>20210617</v>
+        <v>20220622</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>10派2.10元(实施方案)</t>
+          <t>10派5.8元(实施方案)</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>0.21</v>
+        <v>0.58</v>
       </c>
       <c r="G254" t="n">
-        <v>5.42584033</v>
+        <v>11.73944444</v>
       </c>
       <c r="H254" t="n">
-        <v>0.03870368223681216</v>
+        <v>0.04940608586414503</v>
       </c>
       <c r="I254" t="n">
         <v>0.2200393362033886</v>
@@ -11274,25 +11274,25 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>2019年报</t>
+          <t>2020年报</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>20200703</v>
+        <v>20210617</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>10派1.65元(实施方案)</t>
+          <t>10派2.10元(实施方案)</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>0.165</v>
+        <v>0.21</v>
       </c>
       <c r="G255" t="n">
-        <v>4.82849549</v>
+        <v>5.42584033</v>
       </c>
       <c r="H255" t="n">
-        <v>0.03417213505567548</v>
+        <v>0.03870368223681216</v>
       </c>
       <c r="I255" t="n">
         <v>0.2200393362033886</v>
@@ -11317,25 +11317,25 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>2018年报</t>
+          <t>2019年报</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>20190703</v>
+        <v>20200703</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>10派1.80元(实施方案)</t>
+          <t>10派1.65元(实施方案)</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>0.18</v>
+        <v>0.165</v>
       </c>
       <c r="G256" t="n">
-        <v>5.06261317</v>
+        <v>4.82849549</v>
       </c>
       <c r="H256" t="n">
-        <v>0.03555476074424229</v>
+        <v>0.03417213505567548</v>
       </c>
       <c r="I256" t="n">
         <v>0.2200393362033886</v>
@@ -11360,25 +11360,25 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>2017年报</t>
+          <t>2018年报</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>20180704</v>
+        <v>20190703</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>10派2.10元(实施方案)</t>
+          <t>10派1.80元(实施方案)</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="G257" t="n">
-        <v>6.47517521</v>
+        <v>5.06261317</v>
       </c>
       <c r="H257" t="n">
-        <v>0.03243155485208871</v>
+        <v>0.03555476074424229</v>
       </c>
       <c r="I257" t="n">
         <v>0.2200393362033886</v>
@@ -11403,25 +11403,25 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>2016年报</t>
+          <t>2017年报</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>20170519</v>
+        <v>20180704</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>10派2.1元(实施方案)</t>
+          <t>10派2.10元(实施方案)</t>
         </is>
       </c>
       <c r="F258" t="n">
         <v>0.21</v>
       </c>
       <c r="G258" t="n">
-        <v>5.42085943</v>
+        <v>6.47517521</v>
       </c>
       <c r="H258" t="n">
-        <v>0.03873924471050156</v>
+        <v>0.03243155485208871</v>
       </c>
       <c r="I258" t="n">
         <v>0.2200393362033886</v>
@@ -11446,25 +11446,25 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>2015年报</t>
+          <t>2016年报</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>20160705</v>
+        <v>20170519</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>10派1.801元(实施方案)</t>
+          <t>10派2.1元(实施方案)</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>0.1801</v>
+        <v>0.21</v>
       </c>
       <c r="G259" t="n">
-        <v>8.182797920000001</v>
+        <v>5.42085943</v>
       </c>
       <c r="H259" t="n">
-        <v>0.02200958666714819</v>
+        <v>0.03873924471050156</v>
       </c>
       <c r="I259" t="n">
         <v>0.2200393362033886</v>
@@ -11489,25 +11489,25 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>2014年报</t>
+          <t>2015年报</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>20150722</v>
+        <v>20160705</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>10派1.6元(实施方案)</t>
+          <t>10派1.801元(实施方案)</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>0.16</v>
+        <v>0.1801</v>
       </c>
       <c r="G260" t="n">
-        <v>5.66564979</v>
+        <v>8.182797920000001</v>
       </c>
       <c r="H260" t="n">
-        <v>0.02824036181735123</v>
+        <v>0.02200958666714819</v>
       </c>
       <c r="I260" t="n">
         <v>0.2200393362033886</v>
@@ -11532,25 +11532,25 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>2013年报</t>
+          <t>2014年报</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>20140613</v>
+        <v>20150722</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>10派1.33元(实施方案)</t>
+          <t>10派1.6元(实施方案)</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>0.133</v>
+        <v>0.16</v>
       </c>
       <c r="G261" t="n">
-        <v>4.90948025</v>
+        <v>5.66564979</v>
       </c>
       <c r="H261" t="n">
-        <v>0.02709044404445868</v>
+        <v>0.02824036181735123</v>
       </c>
       <c r="I261" t="n">
         <v>0.2200393362033886</v>
@@ -11565,44 +11565,44 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>SH600048</t>
+          <t>SH600089</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>保利发展</t>
+          <t>特变电工</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>2022年报</t>
+          <t>2013年报</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>20230608</v>
+        <v>20140613</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>10派4.5元(实施方案)</t>
+          <t>10派1.33元(实施方案)</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>0.45</v>
+        <v>0.133</v>
       </c>
       <c r="G262" t="n">
-        <v>15.56791322</v>
+        <v>4.90948025</v>
       </c>
       <c r="H262" t="n">
-        <v>0.02890560819814231</v>
+        <v>0.02709044404445868</v>
       </c>
       <c r="I262" t="n">
-        <v>-0.05546971967434577</v>
+        <v>0.2200393362033886</v>
       </c>
       <c r="J262" t="n">
-        <v>0.09025686767405494</v>
+        <v>0.1121079924876391</v>
       </c>
       <c r="K262" t="n">
-        <v>0.05071197530668449</v>
+        <v>0.03538243008754582</v>
       </c>
     </row>
     <row r="263">
@@ -11618,25 +11618,25 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>2021年报</t>
+          <t>2022年报</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>20220705</v>
+        <v>20230608</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>10派5.8元(实施方案)</t>
+          <t>10派4.5元(实施方案)</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>0.58</v>
+        <v>0.45</v>
       </c>
       <c r="G263" t="n">
-        <v>12.19302469</v>
+        <v>15.56791322</v>
       </c>
       <c r="H263" t="n">
-        <v>0.04756818055783007</v>
+        <v>0.02890560819814231</v>
       </c>
       <c r="I263" t="n">
         <v>-0.05546971967434577</v>
@@ -11661,25 +11661,25 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>2020年报</t>
+          <t>2021年报</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>20210813</v>
+        <v>20220705</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>10派7.3元(实施方案)</t>
+          <t>10派5.8元(实施方案)</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>0.73</v>
+        <v>0.58</v>
       </c>
       <c r="G264" t="n">
-        <v>13.67371111</v>
+        <v>12.19302469</v>
       </c>
       <c r="H264" t="n">
-        <v>0.05338711591369872</v>
+        <v>0.04756818055783007</v>
       </c>
       <c r="I264" t="n">
         <v>-0.05546971967434577</v>
@@ -11704,25 +11704,25 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>2019年报</t>
+          <t>2020年报</t>
         </is>
       </c>
       <c r="D265" t="n">
-        <v>20200528</v>
+        <v>20210813</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>10派8.20元(实施方案)</t>
+          <t>10派7.3元(实施方案)</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>0.82</v>
+        <v>0.73</v>
       </c>
       <c r="G265" t="n">
-        <v>11.32198361</v>
+        <v>13.67371111</v>
       </c>
       <c r="H265" t="n">
-        <v>0.07242547138787105</v>
+        <v>0.05338711591369872</v>
       </c>
       <c r="I265" t="n">
         <v>-0.05546971967434577</v>
@@ -11747,25 +11747,25 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>2018年报</t>
+          <t>2019年报</t>
         </is>
       </c>
       <c r="D266" t="n">
-        <v>20190527</v>
+        <v>20200528</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>10派5.00元(实施方案)</t>
+          <t>10派8.20元(实施方案)</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>0.5</v>
+        <v>0.82</v>
       </c>
       <c r="G266" t="n">
-        <v>10.36107037</v>
+        <v>11.32198361</v>
       </c>
       <c r="H266" t="n">
-        <v>0.04825756240858347</v>
+        <v>0.07242547138787105</v>
       </c>
       <c r="I266" t="n">
         <v>-0.05546971967434577</v>
@@ -11790,25 +11790,25 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>2017年报</t>
+          <t>2018年报</t>
         </is>
       </c>
       <c r="D267" t="n">
-        <v>20180607</v>
+        <v>20190527</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>10派4.00元(实施方案)</t>
+          <t>10派5.00元(实施方案)</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G267" t="n">
-        <v>7.89406189</v>
+        <v>10.36107037</v>
       </c>
       <c r="H267" t="n">
-        <v>0.050670998729654</v>
+        <v>0.04825756240858347</v>
       </c>
       <c r="I267" t="n">
         <v>-0.05546971967434577</v>
@@ -11833,25 +11833,25 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>2016年报</t>
+          <t>2017年报</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>20170608</v>
+        <v>20180607</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>10派3.15元(实施方案)</t>
+          <t>10派4.00元(实施方案)</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>0.315</v>
+        <v>0.4</v>
       </c>
       <c r="G268" t="n">
-        <v>6.83294768</v>
+        <v>7.89406189</v>
       </c>
       <c r="H268" t="n">
-        <v>0.04610016273386715</v>
+        <v>0.050670998729654</v>
       </c>
       <c r="I268" t="n">
         <v>-0.05546971967434577</v>
@@ -11876,25 +11876,25 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>2015年报</t>
+          <t>2016年报</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>20160516</v>
+        <v>20170608</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>10派3.45元(实施方案)</t>
+          <t>10派3.15元(实施方案)</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>0.345</v>
+        <v>0.315</v>
       </c>
       <c r="G269" t="n">
-        <v>7.5473582</v>
+        <v>6.83294768</v>
       </c>
       <c r="H269" t="n">
-        <v>0.04571135897591293</v>
+        <v>0.04610016273386715</v>
       </c>
       <c r="I269" t="n">
         <v>-0.05546971967434577</v>
@@ -11919,25 +11919,25 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>2014年报</t>
+          <t>2015年报</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>20150610</v>
+        <v>20160516</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>10派2.16元(实施方案)</t>
+          <t>10派3.45元(实施方案)</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>0.216</v>
+        <v>0.345</v>
       </c>
       <c r="G270" t="n">
-        <v>3.95328367</v>
+        <v>7.5473582</v>
       </c>
       <c r="H270" t="n">
-        <v>0.05463812314788937</v>
+        <v>0.04571135897591293</v>
       </c>
       <c r="I270" t="n">
         <v>-0.05546971967434577</v>
@@ -11962,25 +11962,25 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>2013年报</t>
+          <t>2014年报</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>20140521</v>
+        <v>20150610</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>10转5股派2.94元(实施方案)</t>
+          <t>10派2.16元(实施方案)</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>0.294</v>
+        <v>0.216</v>
       </c>
       <c r="G271" t="n">
-        <v>4.9449021</v>
+        <v>3.95328367</v>
       </c>
       <c r="H271" t="n">
-        <v>0.05945517101339579</v>
+        <v>0.05463812314788937</v>
       </c>
       <c r="I271" t="n">
         <v>-0.05546971967434577</v>
@@ -11995,44 +11995,44 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>SH600039</t>
+          <t>SH600048</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>四川路桥</t>
+          <t>保利发展</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>2022年报</t>
+          <t>2013年报</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>20230614</v>
+        <v>20140521</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>10转4股派9.1元(实施方案)</t>
+          <t>10转5股派2.94元(实施方案)</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>0.9099999999999999</v>
+        <v>0.294</v>
       </c>
       <c r="G272" t="n">
-        <v>7.07894813</v>
+        <v>4.9449021</v>
       </c>
       <c r="H272" t="n">
-        <v>0.1285501720437101</v>
+        <v>0.05945517101339579</v>
       </c>
       <c r="I272" t="n">
-        <v>0.269303757775831</v>
+        <v>-0.05546971967434577</v>
       </c>
       <c r="J272" t="n">
-        <v>0.1736171381819371</v>
+        <v>0.09025686767405494</v>
       </c>
       <c r="K272" t="n">
-        <v>0.04896566585208988</v>
+        <v>0.05071197530668449</v>
       </c>
     </row>
     <row r="273">
@@ -12048,25 +12048,25 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>2021年报</t>
+          <t>2022年报</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>20220614</v>
+        <v>20230614</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>10派4.7元(实施方案)</t>
+          <t>10转4股派9.1元(实施方案)</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>0.47</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="G273" t="n">
-        <v>4.77547082</v>
+        <v>7.07894813</v>
       </c>
       <c r="H273" t="n">
-        <v>0.09841961509462224</v>
+        <v>0.1285501720437101</v>
       </c>
       <c r="I273" t="n">
         <v>0.269303757775831</v>
@@ -12091,25 +12091,25 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>2020年报</t>
+          <t>2021年报</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>20210707</v>
+        <v>20220614</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>10派2.50元(实施方案)</t>
+          <t>10派4.7元(实施方案)</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>0.25</v>
+        <v>0.47</v>
       </c>
       <c r="G274" t="n">
-        <v>2.53468967</v>
+        <v>4.77547082</v>
       </c>
       <c r="H274" t="n">
-        <v>0.09863140366212957</v>
+        <v>0.09841961509462224</v>
       </c>
       <c r="I274" t="n">
         <v>0.269303757775831</v>
@@ -12134,25 +12134,25 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>2019年报</t>
+          <t>2020年报</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>20200707</v>
+        <v>20210707</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>10派0.70元(实施方案)</t>
+          <t>10派2.50元(实施方案)</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>0.06999999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="G275" t="n">
-        <v>2.10383238</v>
+        <v>2.53468967</v>
       </c>
       <c r="H275" t="n">
-        <v>0.03327261271641802</v>
+        <v>0.09863140366212957</v>
       </c>
       <c r="I275" t="n">
         <v>0.269303757775831</v>
@@ -12177,25 +12177,25 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>2018年报</t>
+          <t>2019年报</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>20190717</v>
+        <v>20200707</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>10派0.50元(实施方案)</t>
+          <t>10派0.70元(实施方案)</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>0.05</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="G276" t="n">
-        <v>2.14302634</v>
+        <v>2.10383238</v>
       </c>
       <c r="H276" t="n">
-        <v>0.02333149110990395</v>
+        <v>0.03327261271641802</v>
       </c>
       <c r="I276" t="n">
         <v>0.269303757775831</v>
@@ -12220,11 +12220,11 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>2017年报</t>
+          <t>2018年报</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>20180706</v>
+        <v>20190717</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -12235,10 +12235,10 @@
         <v>0.05</v>
       </c>
       <c r="G277" t="n">
-        <v>2.64419426</v>
+        <v>2.14302634</v>
       </c>
       <c r="H277" t="n">
-        <v>0.01890935199292052</v>
+        <v>0.02333149110990395</v>
       </c>
       <c r="I277" t="n">
         <v>0.269303757775831</v>
@@ -12263,11 +12263,11 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>2016年报</t>
+          <t>2017年报</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>20170621</v>
+        <v>20180706</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -12278,10 +12278,10 @@
         <v>0.05</v>
       </c>
       <c r="G278" t="n">
-        <v>2.39385812</v>
+        <v>2.64419426</v>
       </c>
       <c r="H278" t="n">
-        <v>0.02088678505307575</v>
+        <v>0.01890935199292052</v>
       </c>
       <c r="I278" t="n">
         <v>0.269303757775831</v>
@@ -12306,11 +12306,11 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>2015年报</t>
+          <t>2016年报</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>20160706</v>
+        <v>20170621</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -12321,10 +12321,10 @@
         <v>0.05</v>
       </c>
       <c r="G279" t="n">
-        <v>3.36917541</v>
+        <v>2.39385812</v>
       </c>
       <c r="H279" t="n">
-        <v>0.01484042648880665</v>
+        <v>0.02088678505307575</v>
       </c>
       <c r="I279" t="n">
         <v>0.269303757775831</v>
@@ -12349,11 +12349,11 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>2014年报</t>
+          <t>2015年报</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>20150709</v>
+        <v>20160706</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -12364,10 +12364,10 @@
         <v>0.05</v>
       </c>
       <c r="G280" t="n">
-        <v>1.98479714</v>
+        <v>3.36917541</v>
       </c>
       <c r="H280" t="n">
-        <v>0.02519149135815462</v>
+        <v>0.01484042648880665</v>
       </c>
       <c r="I280" t="n">
         <v>0.269303757775831</v>
@@ -12392,20 +12392,26 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>2014中报</t>
+          <t>2014年报</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>20141008</v>
+        <v>20150709</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>10转10股(实施方案)</t>
-        </is>
-      </c>
-      <c r="F281" t="inlineStr"/>
-      <c r="G281" t="inlineStr"/>
-      <c r="H281" t="inlineStr"/>
+          <t>10派0.50元(实施方案)</t>
+        </is>
+      </c>
+      <c r="F281" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G281" t="n">
+        <v>1.98479714</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0.02519149135815462</v>
+      </c>
       <c r="I281" t="n">
         <v>0.269303757775831</v>
       </c>
@@ -12429,26 +12435,20 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>2013年报</t>
+          <t>2014中报</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>20140523</v>
+        <v>20141008</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>10派0.5元(实施方案)</t>
-        </is>
-      </c>
-      <c r="F282" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="G282" t="n">
-        <v>1.81006555</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0.02762330900115744</v>
-      </c>
+          <t>10转10股(实施方案)</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr"/>
+      <c r="G282" t="inlineStr"/>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="n">
         <v>0.269303757775831</v>
       </c>
@@ -12462,44 +12462,44 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>SH600036</t>
+          <t>SH600039</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>招商银行</t>
+          <t>四川路桥</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>2023年报(未公布具体日期)</t>
+          <t>2013年报</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>20240403</v>
+        <v>20140523</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>10派19.72元(董事会预案)(未确定具体日期)</t>
+          <t>10派0.5元(实施方案)</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>1.972</v>
+        <v>0.05</v>
       </c>
       <c r="G283" t="n">
-        <v>32.46167851</v>
+        <v>1.81006555</v>
       </c>
       <c r="H283" t="n">
-        <v>0.06074855307905642</v>
+        <v>0.02762330900115744</v>
       </c>
       <c r="I283" t="n">
-        <v>0.0202042353358145</v>
+        <v>0.269303757775831</v>
       </c>
       <c r="J283" t="n">
-        <v>0.169272725941537</v>
+        <v>0.1736171381819371</v>
       </c>
       <c r="K283" t="n">
-        <v>0.05304026090038947</v>
+        <v>0.04896566585208988</v>
       </c>
     </row>
     <row r="284">
@@ -12515,25 +12515,25 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>2022年报</t>
+          <t>2023年报(未公布具体日期)</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>20230712</v>
+        <v>20240403</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>10派17.38元(实施方案)</t>
+          <t>10派19.72元(董事会预案)(未确定具体日期)</t>
         </is>
       </c>
       <c r="F284" t="n">
-        <v>1.738</v>
+        <v>1.972</v>
       </c>
       <c r="G284" t="n">
-        <v>36.08455826</v>
+        <v>32.46167851</v>
       </c>
       <c r="H284" t="n">
-        <v>0.04816464670225951</v>
+        <v>0.06074855307905642</v>
       </c>
       <c r="I284" t="n">
         <v>0.0202042353358145</v>
@@ -12558,25 +12558,25 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>2021年报</t>
+          <t>2022年报</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>20220714</v>
+        <v>20230712</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>10派15.22元(实施方案)</t>
+          <t>10派17.38元(实施方案)</t>
         </is>
       </c>
       <c r="F285" t="n">
-        <v>1.522</v>
+        <v>1.738</v>
       </c>
       <c r="G285" t="n">
-        <v>46.55713004</v>
+        <v>36.08455826</v>
       </c>
       <c r="H285" t="n">
-        <v>0.0326910185119306</v>
+        <v>0.04816464670225951</v>
       </c>
       <c r="I285" t="n">
         <v>0.0202042353358145</v>
@@ -12601,25 +12601,25 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>2020年报</t>
+          <t>2021年报</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>20210712</v>
+        <v>20220714</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>10派12.53元(实施方案)</t>
+          <t>10派15.22元(实施方案)</t>
         </is>
       </c>
       <c r="F286" t="n">
-        <v>1.253</v>
+        <v>1.522</v>
       </c>
       <c r="G286" t="n">
-        <v>32.52150576</v>
+        <v>46.55713004</v>
       </c>
       <c r="H286" t="n">
-        <v>0.03852835133916628</v>
+        <v>0.0326910185119306</v>
       </c>
       <c r="I286" t="n">
         <v>0.0202042353358145</v>
@@ -12644,25 +12644,25 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>2019年报</t>
+          <t>2020年报</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>20200709</v>
+        <v>20210712</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>10派12元(实施方案)</t>
+          <t>10派12.53元(实施方案)</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>1.2</v>
+        <v>1.253</v>
       </c>
       <c r="G287" t="n">
-        <v>29.00124959</v>
+        <v>32.52150576</v>
       </c>
       <c r="H287" t="n">
-        <v>0.04137752741570747</v>
+        <v>0.03852835133916628</v>
       </c>
       <c r="I287" t="n">
         <v>0.0202042353358145</v>
@@ -12687,25 +12687,25 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>2018年报</t>
+          <t>2019年报</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>20190711</v>
+        <v>20200709</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>10派9.4元(实施方案)</t>
+          <t>10派12元(实施方案)</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>0.9400000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="G288" t="n">
-        <v>23.85812798</v>
+        <v>29.00124959</v>
       </c>
       <c r="H288" t="n">
-        <v>0.03939957069506843</v>
+        <v>0.04137752741570747</v>
       </c>
       <c r="I288" t="n">
         <v>0.0202042353358145</v>
@@ -12730,25 +12730,25 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>2017年报</t>
+          <t>2018年报</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>20180711</v>
+        <v>20190711</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>10派8.4元(实施方案)</t>
+          <t>10派9.4元(实施方案)</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>0.8400000000000001</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="G289" t="n">
-        <v>18.70755082</v>
+        <v>23.85812798</v>
       </c>
       <c r="H289" t="n">
-        <v>0.04490165538409052</v>
+        <v>0.03939957069506843</v>
       </c>
       <c r="I289" t="n">
         <v>0.0202042353358145</v>
@@ -12773,25 +12773,25 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>2016年报</t>
+          <t>2017年报</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>20170613</v>
+        <v>20180711</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>10派7.4元(实施方案)</t>
+          <t>10派8.4元(实施方案)</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>0.74</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="G290" t="n">
-        <v>13.24341393</v>
+        <v>18.70755082</v>
       </c>
       <c r="H290" t="n">
-        <v>0.05587683084674226</v>
+        <v>0.04490165538409052</v>
       </c>
       <c r="I290" t="n">
         <v>0.0202042353358145</v>
@@ -12816,25 +12816,25 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>2015年报</t>
+          <t>2016年报</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>20160712</v>
+        <v>20170613</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>10派6.90元(实施方案)</t>
+          <t>10派7.4元(实施方案)</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>0.6900000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="G291" t="n">
-        <v>12.78040377</v>
+        <v>13.24341393</v>
       </c>
       <c r="H291" t="n">
-        <v>0.05398890460876261</v>
+        <v>0.05587683084674226</v>
       </c>
       <c r="I291" t="n">
         <v>0.0202042353358145</v>
@@ -12859,25 +12859,25 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>2014年报</t>
+          <t>2015年报</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>20150702</v>
+        <v>20160712</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>10派6.7元(实施方案)</t>
+          <t>10派6.90元(实施方案)</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>0.67</v>
+        <v>0.6900000000000001</v>
       </c>
       <c r="G292" t="n">
-        <v>7.54498612</v>
+        <v>12.78040377</v>
       </c>
       <c r="H292" t="n">
-        <v>0.08880069351274036</v>
+        <v>0.05398890460876261</v>
       </c>
       <c r="I292" t="n">
         <v>0.0202042353358145</v>
@@ -12902,25 +12902,25 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>2013年报</t>
+          <t>2014年报</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>20140710</v>
+        <v>20150702</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>10派6.20元(实施方案)</t>
+          <t>10派6.7元(实施方案)</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>0.62</v>
+        <v>0.67</v>
       </c>
       <c r="G293" t="n">
-        <v>7.8515681</v>
+        <v>7.54498612</v>
       </c>
       <c r="H293" t="n">
-        <v>0.07896511780875975</v>
+        <v>0.08880069351274036</v>
       </c>
       <c r="I293" t="n">
         <v>0.0202042353358145</v>
@@ -12935,44 +12935,44 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>SH600028</t>
+          <t>SH600036</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>中国石化</t>
+          <t>招商银行</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>2023年报(未公布具体日期)</t>
+          <t>2013年报</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>20240403</v>
+        <v>20140710</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>10派2.0元(董事会预案)(未确定具体日期)</t>
+          <t>10派6.20元(实施方案)</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>0.2</v>
+        <v>0.62</v>
       </c>
       <c r="G294" t="n">
-        <v>5.57846281</v>
+        <v>7.8515681</v>
       </c>
       <c r="H294" t="n">
-        <v>0.03585217053728104</v>
+        <v>0.07896511780875975</v>
       </c>
       <c r="I294" t="n">
-        <v>0.09711810023747991</v>
+        <v>0.0202042353358145</v>
       </c>
       <c r="J294" t="n">
-        <v>0.08807486158008726</v>
+        <v>0.169272725941537</v>
       </c>
       <c r="K294" t="n">
-        <v>0.04277894844763735</v>
+        <v>0.05304026090038947</v>
       </c>
     </row>
     <row r="295">
@@ -12988,25 +12988,25 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>2023中报</t>
+          <t>2023年报(未公布具体日期)</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>20230914</v>
+        <v>20240403</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>10派1.45元(实施方案)</t>
+          <t>10派2.0元(董事会预案)(未确定具体日期)</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>0.145</v>
+        <v>0.2</v>
       </c>
       <c r="G295" t="n">
         <v>5.57846281</v>
       </c>
       <c r="H295" t="n">
-        <v>0.02599282363952875</v>
+        <v>0.03585217053728104</v>
       </c>
       <c r="I295" t="n">
         <v>0.09711810023747991</v>
@@ -13031,25 +13031,25 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>2022年报</t>
+          <t>2023中报</t>
         </is>
       </c>
       <c r="D296" t="n">
-        <v>20230620</v>
+        <v>20230914</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>10派1.95元(实施方案)</t>
+          <t>10派1.45元(实施方案)</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>0.195</v>
+        <v>0.145</v>
       </c>
       <c r="G296" t="n">
-        <v>3.82880041</v>
+        <v>5.57846281</v>
       </c>
       <c r="H296" t="n">
-        <v>0.05092978978238252</v>
+        <v>0.02599282363952875</v>
       </c>
       <c r="I296" t="n">
         <v>0.09711810023747991</v>
@@ -13074,25 +13074,25 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>2022中报</t>
+          <t>2022年报</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>20220916</v>
+        <v>20230620</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>10派1.6元(实施方案)</t>
+          <t>10派1.95元(实施方案)</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>0.16</v>
+        <v>0.195</v>
       </c>
       <c r="G297" t="n">
         <v>3.82880041</v>
       </c>
       <c r="H297" t="n">
-        <v>0.04178854546246771</v>
+        <v>0.05092978978238252</v>
       </c>
       <c r="I297" t="n">
         <v>0.09711810023747991</v>
@@ -13117,25 +13117,25 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>2021年报</t>
+          <t>2022中报</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>20220609</v>
+        <v>20220916</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>10派3.1元(实施方案)</t>
+          <t>10派1.6元(实施方案)</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>0.31</v>
+        <v>0.16</v>
       </c>
       <c r="G298" t="n">
-        <v>3.50453539</v>
+        <v>3.82880041</v>
       </c>
       <c r="H298" t="n">
-        <v>0.0884568039702404</v>
+        <v>0.04178854546246771</v>
       </c>
       <c r="I298" t="n">
         <v>0.09711810023747991</v>
@@ -13160,25 +13160,25 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>2021中报</t>
+          <t>2021年报</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>20210916</v>
+        <v>20220609</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>10派1.6元(实施方案)</t>
+          <t>10派3.1元(实施方案)</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>0.16</v>
+        <v>0.31</v>
       </c>
       <c r="G299" t="n">
         <v>3.50453539</v>
       </c>
       <c r="H299" t="n">
-        <v>0.0456551246298015</v>
+        <v>0.0884568039702404</v>
       </c>
       <c r="I299" t="n">
         <v>0.09711810023747991</v>
@@ -13203,25 +13203,25 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>2020年报</t>
+          <t>2021中报</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>20210616</v>
+        <v>20210916</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>10派1.3元(实施方案)</t>
+          <t>10派1.6元(实施方案)</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="G300" t="n">
-        <v>3.29107284</v>
+        <v>3.50453539</v>
       </c>
       <c r="H300" t="n">
-        <v>0.03950079694984812</v>
+        <v>0.0456551246298015</v>
       </c>
       <c r="I300" t="n">
         <v>0.09711810023747991</v>
@@ -13246,25 +13246,25 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>2020中报</t>
+          <t>2020年报</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>20201022</v>
+        <v>20210616</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>10派0.7元(实施方案)</t>
+          <t>10派1.3元(实施方案)</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>0.06999999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="G301" t="n">
         <v>3.29107284</v>
       </c>
       <c r="H301" t="n">
-        <v>0.02126965989607206</v>
+        <v>0.03950079694984812</v>
       </c>
       <c r="I301" t="n">
         <v>0.09711810023747991</v>
@@ -13289,25 +13289,25 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>2019年报</t>
+          <t>2020中报</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>20200609</v>
+        <v>20201022</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>10派1.9元(实施方案)</t>
+          <t>10派0.7元(实施方案)</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>0.19</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="G302" t="n">
-        <v>3.84580041</v>
+        <v>3.29107284</v>
       </c>
       <c r="H302" t="n">
-        <v>0.04940453995115155</v>
+        <v>0.02126965989607206</v>
       </c>
       <c r="I302" t="n">
         <v>0.09711810023747991</v>
@@ -13332,25 +13332,25 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>2019中报</t>
+          <t>2019年报</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>20190916</v>
+        <v>20200609</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>10派1.2元(实施方案)</t>
+          <t>10派1.9元(实施方案)</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="G303" t="n">
         <v>3.84580041</v>
       </c>
       <c r="H303" t="n">
-        <v>0.0312028673375694</v>
+        <v>0.04940453995115155</v>
       </c>
       <c r="I303" t="n">
         <v>0.09711810023747991</v>
@@ -13375,25 +13375,25 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>2018年报</t>
+          <t>2019中报</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>20190610</v>
+        <v>20190916</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>10派2.6元(实施方案)</t>
+          <t>10派1.2元(实施方案)</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>0.26</v>
+        <v>0.12</v>
       </c>
       <c r="G304" t="n">
-        <v>4.38793333</v>
+        <v>3.84580041</v>
       </c>
       <c r="H304" t="n">
-        <v>0.05925340711591896</v>
+        <v>0.0312028673375694</v>
       </c>
       <c r="I304" t="n">
         <v>0.09711810023747991</v>
@@ -13418,25 +13418,25 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>2018中报</t>
+          <t>2018年报</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>20180911</v>
+        <v>20190610</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>10派1.6元(实施方案)</t>
+          <t>10派2.6元(实施方案)</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>0.16</v>
+        <v>0.26</v>
       </c>
       <c r="G305" t="n">
         <v>4.38793333</v>
       </c>
       <c r="H305" t="n">
-        <v>0.03646363514825782</v>
+        <v>0.05925340711591896</v>
       </c>
       <c r="I305" t="n">
         <v>0.09711810023747991</v>
@@ -13461,25 +13461,25 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>2017年报</t>
+          <t>2018中报</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>20180604</v>
+        <v>20180911</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>10派4元(实施方案)</t>
+          <t>10派1.6元(实施方案)</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>0.4</v>
+        <v>0.16</v>
       </c>
       <c r="G306" t="n">
-        <v>3.7147832</v>
+        <v>4.38793333</v>
       </c>
       <c r="H306" t="n">
-        <v>0.1076778854819845</v>
+        <v>0.03646363514825782</v>
       </c>
       <c r="I306" t="n">
         <v>0.09711810023747991</v>
@@ -13504,25 +13504,25 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>2017中报</t>
+          <t>2017年报</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>20170919</v>
+        <v>20180604</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>10派1元(实施方案)</t>
+          <t>10派4元(实施方案)</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="G307" t="n">
         <v>3.7147832</v>
       </c>
       <c r="H307" t="n">
-        <v>0.02691947137049613</v>
+        <v>0.1076778854819845</v>
       </c>
       <c r="I307" t="n">
         <v>0.09711810023747991</v>
@@ -13547,25 +13547,25 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>2016年报</t>
+          <t>2017中报</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>20170718</v>
+        <v>20170919</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>10派1.7元(实施方案)</t>
+          <t>10派1元(实施方案)</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="G308" t="n">
-        <v>2.92617541</v>
+        <v>3.7147832</v>
       </c>
       <c r="H308" t="n">
-        <v>0.05809631214145156</v>
+        <v>0.02691947137049613</v>
       </c>
       <c r="I308" t="n">
         <v>0.09711810023747991</v>
@@ -13590,25 +13590,25 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>2016中报</t>
+          <t>2016年报</t>
         </is>
       </c>
       <c r="D309" t="n">
-        <v>20160920</v>
+        <v>20170718</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>10派0.79元(实施方案)</t>
+          <t>10派1.7元(实施方案)</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>0.079</v>
+        <v>0.17</v>
       </c>
       <c r="G309" t="n">
         <v>2.92617541</v>
       </c>
       <c r="H309" t="n">
-        <v>0.02699769799514514</v>
+        <v>0.05809631214145156</v>
       </c>
       <c r="I309" t="n">
         <v>0.09711810023747991</v>
@@ -13633,25 +13633,25 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>2015年报</t>
+          <t>2016中报</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>20160623</v>
+        <v>20160920</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>10派0.6元(实施方案)</t>
+          <t>10派0.79元(实施方案)</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>0.06</v>
+        <v>0.079</v>
       </c>
       <c r="G310" t="n">
-        <v>3.59481475</v>
+        <v>2.92617541</v>
       </c>
       <c r="H310" t="n">
-        <v>0.01669070708024662</v>
+        <v>0.02699769799514514</v>
       </c>
       <c r="I310" t="n">
         <v>0.09711810023747991</v>
@@ -13676,25 +13676,25 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>2015中报</t>
+          <t>2015年报</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>20150922</v>
+        <v>20160623</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>10派0.9元(实施方案)</t>
+          <t>10派0.6元(实施方案)</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="G311" t="n">
         <v>3.59481475</v>
       </c>
       <c r="H311" t="n">
-        <v>0.02503606062036994</v>
+        <v>0.01669070708024662</v>
       </c>
       <c r="I311" t="n">
         <v>0.09711810023747991</v>
@@ -13719,25 +13719,25 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>2014年报</t>
+          <t>2015中报</t>
         </is>
       </c>
       <c r="D312" t="n">
-        <v>20150618</v>
+        <v>20150922</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>10派1.1元(实施方案)</t>
+          <t>10派0.9元(实施方案)</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="G312" t="n">
-        <v>2.92437551</v>
+        <v>3.59481475</v>
       </c>
       <c r="H312" t="n">
-        <v>0.03761486841339333</v>
+        <v>0.02503606062036994</v>
       </c>
       <c r="I312" t="n">
         <v>0.09711810023747991</v>
@@ -13762,25 +13762,25 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>2014中报</t>
+          <t>2014年报</t>
         </is>
       </c>
       <c r="D313" t="n">
-        <v>20140923</v>
+        <v>20150618</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>10派0.9元(实施方案)</t>
+          <t>10派1.1元(实施方案)</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="G313" t="n">
         <v>2.92437551</v>
       </c>
       <c r="H313" t="n">
-        <v>0.03077580142913999</v>
+        <v>0.03761486841339333</v>
       </c>
       <c r="I313" t="n">
         <v>0.09711810023747991</v>
@@ -13795,44 +13795,44 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>SH600016</t>
+          <t>SH600028</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>民生银行</t>
+          <t>中国石化</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>2023年报(未公布具体日期)</t>
+          <t>2014中报</t>
         </is>
       </c>
       <c r="D314" t="n">
-        <v>20240403</v>
+        <v>20140923</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>10派2.16元(董事会预案)(未确定具体日期)</t>
+          <t>10派0.9元(实施方案)</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>0.216</v>
+        <v>0.09</v>
       </c>
       <c r="G314" t="n">
-        <v>3.64362066</v>
+        <v>2.92437551</v>
       </c>
       <c r="H314" t="n">
-        <v>0.05928169262274411</v>
+        <v>0.03077580142913999</v>
       </c>
       <c r="I314" t="n">
-        <v>-0.03979694241733345</v>
+        <v>0.09711810023747991</v>
       </c>
       <c r="J314" t="n">
-        <v>0.01132935714075245</v>
+        <v>0.08807486158008726</v>
       </c>
       <c r="K314" t="n">
-        <v>0.03853994169633935</v>
+        <v>0.04277894844763735</v>
       </c>
     </row>
     <row r="315">
@@ -13848,25 +13848,25 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>2022年报</t>
+          <t>2023年报(未公布具体日期)</t>
         </is>
       </c>
       <c r="D315" t="n">
-        <v>20230621</v>
+        <v>20240403</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>10派2.14元(实施方案)</t>
+          <t>10派2.16元(董事会预案)(未确定具体日期)</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>0.214</v>
+        <v>0.216</v>
       </c>
       <c r="G315" t="n">
-        <v>3.38138099</v>
+        <v>3.64362066</v>
       </c>
       <c r="H315" t="n">
-        <v>0.06328775155265778</v>
+        <v>0.05928169262274411</v>
       </c>
       <c r="I315" t="n">
         <v>-0.03979694241733345</v>
@@ -13891,25 +13891,25 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>2021年报</t>
+          <t>2022年报</t>
         </is>
       </c>
       <c r="D316" t="n">
-        <v>20220623</v>
+        <v>20230621</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>10派2.13元(实施方案)</t>
+          <t>10派2.14元(实施方案)</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>0.213</v>
+        <v>0.214</v>
       </c>
       <c r="G316" t="n">
-        <v>3.89719918</v>
+        <v>3.38138099</v>
       </c>
       <c r="H316" t="n">
-        <v>0.05465463533223878</v>
+        <v>0.06328775155265778</v>
       </c>
       <c r="I316" t="n">
         <v>-0.03979694241733345</v>
@@ -13934,11 +13934,11 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>2020年报</t>
+          <t>2021年报</t>
         </is>
       </c>
       <c r="D317" t="n">
-        <v>20210623</v>
+        <v>20220623</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -13949,10 +13949,10 @@
         <v>0.213</v>
       </c>
       <c r="G317" t="n">
-        <v>4.655393</v>
+        <v>3.89719918</v>
       </c>
       <c r="H317" t="n">
-        <v>0.04575338752281494</v>
+        <v>0.05465463533223878</v>
       </c>
       <c r="I317" t="n">
         <v>-0.03979694241733345</v>
@@ -13977,25 +13977,25 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>2019年报</t>
+          <t>2020年报</t>
         </is>
       </c>
       <c r="D318" t="n">
-        <v>20200710</v>
+        <v>20210623</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>10派3.7元(实施方案)</t>
+          <t>10派2.13元(实施方案)</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>0.37</v>
+        <v>0.213</v>
       </c>
       <c r="G318" t="n">
-        <v>4.80542213</v>
+        <v>4.655393</v>
       </c>
       <c r="H318" t="n">
-        <v>0.07699635744591703</v>
+        <v>0.04575338752281494</v>
       </c>
       <c r="I318" t="n">
         <v>-0.03979694241733345</v>
@@ -14020,25 +14020,25 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>2018年报</t>
+          <t>2019年报</t>
         </is>
       </c>
       <c r="D319" t="n">
-        <v>20190704</v>
+        <v>20200710</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>10派3.45元(实施方案)</t>
+          <t>10派3.7元(实施方案)</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>0.345</v>
+        <v>0.37</v>
       </c>
       <c r="G319" t="n">
-        <v>4.82523374</v>
+        <v>4.80542213</v>
       </c>
       <c r="H319" t="n">
-        <v>0.07149912700394905</v>
+        <v>0.07699635744591703</v>
       </c>
       <c r="I319" t="n">
         <v>-0.03979694241733345</v>
@@ -14063,25 +14063,25 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>2017年报</t>
+          <t>2018年报</t>
         </is>
       </c>
       <c r="D320" t="n">
-        <v>20180704</v>
+        <v>20190704</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>10转2股派0.90元(实施方案)</t>
+          <t>10派3.45元(实施方案)</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>0.09</v>
+        <v>0.345</v>
       </c>
       <c r="G320" t="n">
-        <v>5.1677373</v>
+        <v>4.82523374</v>
       </c>
       <c r="H320" t="n">
-        <v>0.01741574595906801</v>
+        <v>0.07149912700394905</v>
       </c>
       <c r="I320" t="n">
         <v>-0.03979694241733345</v>
@@ -14106,25 +14106,25 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>2017中报</t>
+          <t>2017年报</t>
         </is>
       </c>
       <c r="D321" t="n">
-        <v>20170925</v>
+        <v>20180704</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>10派1.20元(实施方案)</t>
+          <t>10转2股派0.90元(实施方案)</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="G321" t="n">
         <v>5.1677373</v>
       </c>
       <c r="H321" t="n">
-        <v>0.02322099461209067</v>
+        <v>0.01741574595906801</v>
       </c>
       <c r="I321" t="n">
         <v>-0.03979694241733345</v>
@@ -14149,25 +14149,25 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>2016年报</t>
+          <t>2017中报</t>
         </is>
       </c>
       <c r="D322" t="n">
-        <v>20170705</v>
+        <v>20170925</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>10派1.65元(实施方案)</t>
+          <t>10派1.20元(实施方案)</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>0.165</v>
+        <v>0.12</v>
       </c>
       <c r="G322" t="n">
-        <v>5.39573934</v>
+        <v>5.1677373</v>
       </c>
       <c r="H322" t="n">
-        <v>0.03057968326542623</v>
+        <v>0.02322099461209067</v>
       </c>
       <c r="I322" t="n">
         <v>-0.03979694241733345</v>
@@ -14192,25 +14192,25 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>2016中报</t>
+          <t>2016年报</t>
         </is>
       </c>
       <c r="D323" t="n">
-        <v>20160923</v>
+        <v>20170705</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>10派1.15元(实施方案)</t>
+          <t>10派1.65元(实施方案)</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>0.115</v>
+        <v>0.165</v>
       </c>
       <c r="G323" t="n">
         <v>5.39573934</v>
       </c>
       <c r="H323" t="n">
-        <v>0.02131311257893343</v>
+        <v>0.03057968326542623</v>
       </c>
       <c r="I323" t="n">
         <v>-0.03979694241733345</v>
@@ -14235,25 +14235,25 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>2015年报</t>
+          <t>2016中报</t>
         </is>
       </c>
       <c r="D324" t="n">
-        <v>20160623</v>
+        <v>20160923</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>10派1.60元(实施方案)</t>
+          <t>10派1.15元(实施方案)</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>0.16</v>
+        <v>0.115</v>
       </c>
       <c r="G324" t="n">
-        <v>5.45739918</v>
+        <v>5.39573934</v>
       </c>
       <c r="H324" t="n">
-        <v>0.02931799465693473</v>
+        <v>0.02131311257893343</v>
       </c>
       <c r="I324" t="n">
         <v>-0.03979694241733345</v>
@@ -14278,25 +14278,25 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>2015中报</t>
+          <t>2015年报</t>
         </is>
       </c>
       <c r="D325" t="n">
-        <v>20160225</v>
+        <v>20160623</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>10派0.75元(实施方案)</t>
+          <t>10派1.60元(实施方案)</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>0.075</v>
+        <v>0.16</v>
       </c>
       <c r="G325" t="n">
         <v>5.45739918</v>
       </c>
       <c r="H325" t="n">
-        <v>0.01374280999543816</v>
+        <v>0.02931799465693473</v>
       </c>
       <c r="I325" t="n">
         <v>-0.03979694241733345</v>
@@ -14321,25 +14321,25 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>2014年报</t>
+          <t>2015中报</t>
         </is>
       </c>
       <c r="D326" t="n">
-        <v>20150706</v>
+        <v>20160225</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>10派1.1元(实施方案)</t>
+          <t>10派0.75元(实施方案)</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>0.11</v>
+        <v>0.075</v>
       </c>
       <c r="G326" t="n">
-        <v>3.74183837</v>
+        <v>5.45739918</v>
       </c>
       <c r="H326" t="n">
-        <v>0.02939731466808386</v>
+        <v>0.01374280999543816</v>
       </c>
       <c r="I326" t="n">
         <v>-0.03979694241733345</v>
@@ -14364,25 +14364,25 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>2014中报</t>
+          <t>2014年报</t>
         </is>
       </c>
       <c r="D327" t="n">
-        <v>20150108</v>
+        <v>20150706</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>10派0.75元(实施方案)</t>
+          <t>10派1.1元(实施方案)</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>0.075</v>
+        <v>0.11</v>
       </c>
       <c r="G327" t="n">
         <v>3.74183837</v>
       </c>
       <c r="H327" t="n">
-        <v>0.0200436236373299</v>
+        <v>0.02939731466808386</v>
       </c>
       <c r="I327" t="n">
         <v>-0.03979694241733345</v>
@@ -14407,25 +14407,25 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>2013年报</t>
+          <t>2014中报</t>
         </is>
       </c>
       <c r="D328" t="n">
-        <v>20140624</v>
+        <v>20150108</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>10送2股派1元(实施方案)</t>
+          <t>10派0.75元(实施方案)</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>0.1</v>
+        <v>0.075</v>
       </c>
       <c r="G328" t="n">
-        <v>4.2903584</v>
+        <v>3.74183837</v>
       </c>
       <c r="H328" t="n">
-        <v>0.02330807608054376</v>
+        <v>0.0200436236373299</v>
       </c>
       <c r="I328" t="n">
         <v>-0.03979694241733345</v>
@@ -14450,25 +14450,25 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>2013中报</t>
+          <t>2013年报</t>
         </is>
       </c>
       <c r="D329" t="n">
-        <v>20130909</v>
+        <v>20140624</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>10派1.58元(实施方案)</t>
+          <t>10送2股派1元(实施方案)</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>0.158</v>
+        <v>0.1</v>
       </c>
       <c r="G329" t="n">
         <v>4.2903584</v>
       </c>
       <c r="H329" t="n">
-        <v>0.03682676020725915</v>
+        <v>0.02330807608054376</v>
       </c>
       <c r="I329" t="n">
         <v>-0.03979694241733345</v>
@@ -14483,44 +14483,44 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>SH600015</t>
+          <t>SH600016</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>华夏银行</t>
+          <t>民生银行</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>2022年报</t>
+          <t>2013中报</t>
         </is>
       </c>
       <c r="D330" t="n">
-        <v>20230620</v>
+        <v>20130909</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>10派3.83元(实施方案)</t>
+          <t>10派1.58元(实施方案)</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>0.383</v>
+        <v>0.158</v>
       </c>
       <c r="G330" t="n">
-        <v>4.79965165</v>
+        <v>4.2903584</v>
       </c>
       <c r="H330" t="n">
-        <v>0.07979745780092186</v>
+        <v>0.03682676020725915</v>
       </c>
       <c r="I330" t="n">
-        <v>-0.001638953142619526</v>
+        <v>-0.03979694241733345</v>
       </c>
       <c r="J330" t="n">
-        <v>0.05319867693860281</v>
+        <v>0.01132935714075245</v>
       </c>
       <c r="K330" t="n">
-        <v>0.06022343717286446</v>
+        <v>0.03853994169633935</v>
       </c>
     </row>
     <row r="331">
@@ -14536,25 +14536,25 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>2021年报</t>
+          <t>2022年报</t>
         </is>
       </c>
       <c r="D331" t="n">
-        <v>20220607</v>
+        <v>20230620</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>10派3.38元(实施方案)</t>
+          <t>10派3.83元(实施方案)</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>0.338</v>
+        <v>0.383</v>
       </c>
       <c r="G331" t="n">
-        <v>5.09663416</v>
+        <v>4.79965165</v>
       </c>
       <c r="H331" t="n">
-        <v>0.06631827778668736</v>
+        <v>0.07979745780092186</v>
       </c>
       <c r="I331" t="n">
         <v>-0.001638953142619526</v>
@@ -14579,25 +14579,25 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>2020年报</t>
+          <t>2021年报</t>
         </is>
       </c>
       <c r="D332" t="n">
-        <v>20210708</v>
+        <v>20220607</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>10派3.01元(实施方案)</t>
+          <t>10派3.38元(实施方案)</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>0.301</v>
+        <v>0.338</v>
       </c>
       <c r="G332" t="n">
-        <v>5.35062387</v>
+        <v>5.09663416</v>
       </c>
       <c r="H332" t="n">
-        <v>0.056255122264836</v>
+        <v>0.06631827778668736</v>
       </c>
       <c r="I332" t="n">
         <v>-0.001638953142619526</v>
@@ -14622,25 +14622,25 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>2019年报</t>
+          <t>2020年报</t>
         </is>
       </c>
       <c r="D333" t="n">
-        <v>20200618</v>
+        <v>20210708</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>10派2.49元(实施方案)</t>
+          <t>10派3.01元(实施方案)</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>0.249</v>
+        <v>0.301</v>
       </c>
       <c r="G333" t="n">
-        <v>6.07705943</v>
+        <v>5.35062387</v>
       </c>
       <c r="H333" t="n">
-        <v>0.04097376418120696</v>
+        <v>0.056255122264836</v>
       </c>
       <c r="I333" t="n">
         <v>-0.001638953142619526</v>
@@ -14665,25 +14665,25 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>2018年报</t>
+          <t>2019年报</t>
         </is>
       </c>
       <c r="D334" t="n">
-        <v>20190710</v>
+        <v>20200618</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>10派1.74元(实施方案)</t>
+          <t>10派2.49元(实施方案)</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>0.174</v>
+        <v>0.249</v>
       </c>
       <c r="G334" t="n">
-        <v>6.3806358</v>
+        <v>6.07705943</v>
       </c>
       <c r="H334" t="n">
-        <v>0.02727000967521136</v>
+        <v>0.04097376418120696</v>
       </c>
       <c r="I334" t="n">
         <v>-0.001638953142619526</v>
@@ -14708,25 +14708,25 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>2017年报</t>
+          <t>2018年报</t>
         </is>
       </c>
       <c r="D335" t="n">
-        <v>20180628</v>
+        <v>20190710</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>10派1.51元(实施方案)</t>
+          <t>10派1.74元(实施方案)</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>0.151</v>
+        <v>0.174</v>
       </c>
       <c r="G335" t="n">
-        <v>7.07565779</v>
+        <v>6.3806358</v>
       </c>
       <c r="H335" t="n">
-        <v>0.02134077204997219</v>
+        <v>0.02727000967521136</v>
       </c>
       <c r="I335" t="n">
         <v>-0.001638953142619526</v>
@@ -14751,25 +14751,25 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>2016年报</t>
+          <t>2017年报</t>
         </is>
       </c>
       <c r="D336" t="n">
-        <v>20170628</v>
+        <v>20180628</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>10转2股派1.81元(实施方案)</t>
+          <t>10派1.51元(实施方案)</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>0.181</v>
+        <v>0.151</v>
       </c>
       <c r="G336" t="n">
-        <v>6.34028484</v>
+        <v>7.07565779</v>
       </c>
       <c r="H336" t="n">
-        <v>0.02854761332773182</v>
+        <v>0.02134077204997219</v>
       </c>
       <c r="I336" t="n">
         <v>-0.001638953142619526</v>
@@ -14794,25 +14794,25 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>2015年报</t>
+          <t>2016年报</t>
         </is>
       </c>
       <c r="D337" t="n">
-        <v>20160707</v>
+        <v>20170628</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>10派3.63元(实施方案)</t>
+          <t>10转2股派1.81元(实施方案)</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>0.363</v>
+        <v>0.181</v>
       </c>
       <c r="G337" t="n">
-        <v>6.82414303</v>
+        <v>6.34028484</v>
       </c>
       <c r="H337" t="n">
-        <v>0.05319349234097163</v>
+        <v>0.02854761332773182</v>
       </c>
       <c r="I337" t="n">
         <v>-0.001638953142619526</v>
@@ -14837,25 +14837,25 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>2014年报</t>
+          <t>2015年报</t>
         </is>
       </c>
       <c r="D338" t="n">
-        <v>20150707</v>
+        <v>20160707</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>10转2股派4.35元(实施方案)</t>
+          <t>10派3.63元(实施方案)</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>0.4349999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="G338" t="n">
-        <v>4.14964939</v>
+        <v>6.82414303</v>
       </c>
       <c r="H338" t="n">
-        <v>0.1048281334438233</v>
+        <v>0.05319349234097163</v>
       </c>
       <c r="I338" t="n">
         <v>-0.001638953142619526</v>
@@ -14880,25 +14880,25 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>2013年报</t>
+          <t>2014年报</t>
         </is>
       </c>
       <c r="D339" t="n">
-        <v>20140709</v>
+        <v>20150707</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>10派4.35元(实施方案)</t>
+          <t>10转2股派4.35元(实施方案)</t>
         </is>
       </c>
       <c r="F339" t="n">
         <v>0.4349999999999999</v>
       </c>
       <c r="G339" t="n">
-        <v>3.5162958</v>
+        <v>4.14964939</v>
       </c>
       <c r="H339" t="n">
-        <v>0.1237097288572821</v>
+        <v>0.1048281334438233</v>
       </c>
       <c r="I339" t="n">
         <v>-0.001638953142619526</v>
@@ -14913,44 +14913,44 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>SZ002555</t>
+          <t>SH600015</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>三七互娱</t>
+          <t>华夏银行</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>2023中报</t>
+          <t>2013年报</t>
         </is>
       </c>
       <c r="D340" t="n">
-        <v>20230927</v>
+        <v>20140709</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>10派4.5元(实施方案)</t>
+          <t>10派4.35元(实施方案)</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>0.45</v>
+        <v>0.4349999999999999</v>
       </c>
       <c r="G340" t="n">
-        <v>24.7455</v>
+        <v>3.5162958</v>
       </c>
       <c r="H340" t="n">
-        <v>0.01818512456810329</v>
+        <v>0.1237097288572821</v>
       </c>
       <c r="I340" t="n">
-        <v>0.07238100125045088</v>
+        <v>-0.001638953142619526</v>
       </c>
       <c r="J340" t="n">
-        <v>0.1327874431109732</v>
+        <v>0.05319867693860281</v>
       </c>
       <c r="K340" t="n">
-        <v>0.01703905110059022</v>
+        <v>0.06022343717286446</v>
       </c>
     </row>
     <row r="341">
@@ -14966,11 +14966,11 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>2022年报</t>
+          <t>2023中报</t>
         </is>
       </c>
       <c r="D341" t="n">
-        <v>20230601</v>
+        <v>20230927</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
@@ -14981,10 +14981,10 @@
         <v>0.45</v>
       </c>
       <c r="G341" t="n">
-        <v>19.32529587</v>
+        <v>24.7455</v>
       </c>
       <c r="H341" t="n">
-        <v>0.02328554258765923</v>
+        <v>0.01818512456810329</v>
       </c>
       <c r="I341" t="n">
         <v>0.07238100125045088</v>
@@ -15009,25 +15009,25 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>2022中报</t>
+          <t>2022年报</t>
         </is>
       </c>
       <c r="D342" t="n">
-        <v>20220923</v>
+        <v>20230601</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>10派3.5元(实施方案)</t>
+          <t>10派4.5元(实施方案)</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="G342" t="n">
         <v>19.32529587</v>
       </c>
       <c r="H342" t="n">
-        <v>0.0181109775681794</v>
+        <v>0.02328554258765923</v>
       </c>
       <c r="I342" t="n">
         <v>0.07238100125045088</v>
@@ -15052,25 +15052,25 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>2021年报</t>
+          <t>2022中报</t>
         </is>
       </c>
       <c r="D343" t="n">
-        <v>20220526</v>
+        <v>20220923</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>10派3.7元(实施方案)</t>
+          <t>10派3.5元(实施方案)</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="G343" t="n">
-        <v>22.33503909</v>
+        <v>19.32529587</v>
       </c>
       <c r="H343" t="n">
-        <v>0.01656589892272268</v>
+        <v>0.0181109775681794</v>
       </c>
       <c r="I343" t="n">
         <v>0.07238100125045088</v>
@@ -15095,25 +15095,25 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>2021中报</t>
+          <t>2021年报</t>
         </is>
       </c>
       <c r="D344" t="n">
-        <v>20211108</v>
+        <v>20220526</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>10派1.5元(实施方案)</t>
+          <t>10派3.7元(实施方案)</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>0.15</v>
+        <v>0.37</v>
       </c>
       <c r="G344" t="n">
         <v>22.33503909</v>
       </c>
       <c r="H344" t="n">
-        <v>0.006715904968671358</v>
+        <v>0.01656589892272268</v>
       </c>
       <c r="I344" t="n">
         <v>0.07238100125045088</v>
@@ -15138,25 +15138,25 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>2020年报</t>
+          <t>2021中报</t>
         </is>
       </c>
       <c r="D345" t="n">
-        <v>20210817</v>
+        <v>20211108</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>10派2元(实施方案)</t>
+          <t>10派1.5元(实施方案)</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="G345" t="n">
-        <v>32.66133663</v>
+        <v>22.33503909</v>
       </c>
       <c r="H345" t="n">
-        <v>0.00612344810825337</v>
+        <v>0.006715904968671358</v>
       </c>
       <c r="I345" t="n">
         <v>0.07238100125045088</v>
@@ -15181,25 +15181,25 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>2020中报</t>
+          <t>2020年报</t>
         </is>
       </c>
       <c r="D346" t="n">
-        <v>20200924</v>
+        <v>20210817</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>10派3元(实施方案)</t>
+          <t>10派2元(实施方案)</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="G346" t="n">
         <v>32.66133663</v>
       </c>
       <c r="H346" t="n">
-        <v>0.009185172162380054</v>
+        <v>0.00612344810825337</v>
       </c>
       <c r="I346" t="n">
         <v>0.07238100125045088</v>
@@ -15224,11 +15224,11 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>2019年报</t>
+          <t>2020中报</t>
         </is>
       </c>
       <c r="D347" t="n">
-        <v>20200508</v>
+        <v>20200924</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -15239,10 +15239,10 @@
         <v>0.3</v>
       </c>
       <c r="G347" t="n">
-        <v>13.88517336</v>
+        <v>32.66133663</v>
       </c>
       <c r="H347" t="n">
-        <v>0.02160577993676559</v>
+        <v>0.009185172162380054</v>
       </c>
       <c r="I347" t="n">
         <v>0.07238100125045088</v>
@@ -15267,25 +15267,25 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>2019中报</t>
+          <t>2019年报</t>
         </is>
       </c>
       <c r="D348" t="n">
-        <v>20190925</v>
+        <v>20200508</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>10派1元(实施方案)</t>
+          <t>10派3元(实施方案)</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="G348" t="n">
         <v>13.88517336</v>
       </c>
       <c r="H348" t="n">
-        <v>0.00720192664558853</v>
+        <v>0.02160577993676559</v>
       </c>
       <c r="I348" t="n">
         <v>0.07238100125045088</v>
@@ -15310,25 +15310,25 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>2018年报</t>
+          <t>2019中报</t>
         </is>
       </c>
       <c r="D349" t="n">
-        <v>20190715</v>
+        <v>20190925</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>10派2元(实施方案)</t>
+          <t>10派1元(实施方案)</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G349" t="n">
-        <v>12.16964321</v>
+        <v>13.88517336</v>
       </c>
       <c r="H349" t="n">
-        <v>0.0164343355469663</v>
+        <v>0.00720192664558853</v>
       </c>
       <c r="I349" t="n">
         <v>0.07238100125045088</v>
@@ -15353,25 +15353,25 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>2018中报</t>
+          <t>2018年报</t>
         </is>
       </c>
       <c r="D350" t="n">
-        <v>20180926</v>
+        <v>20190715</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>10派1元(实施方案)</t>
+          <t>10派2元(实施方案)</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G350" t="n">
         <v>12.16964321</v>
       </c>
       <c r="H350" t="n">
-        <v>0.008217167773483148</v>
+        <v>0.0164343355469663</v>
       </c>
       <c r="I350" t="n">
         <v>0.07238100125045088</v>
@@ -15396,25 +15396,25 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>2017年报</t>
+          <t>2018中报</t>
         </is>
       </c>
       <c r="D351" t="n">
-        <v>20180704</v>
+        <v>20180926</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>10派1.00元(实施方案)</t>
+          <t>10派1元(实施方案)</t>
         </is>
       </c>
       <c r="F351" t="n">
         <v>0.1</v>
       </c>
       <c r="G351" t="n">
-        <v>18.86828884</v>
+        <v>12.16964321</v>
       </c>
       <c r="H351" t="n">
-        <v>0.005299897666819902</v>
+        <v>0.008217167773483148</v>
       </c>
       <c r="I351" t="n">
         <v>0.07238100125045088</v>
@@ -15439,25 +15439,25 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>2016年报</t>
+          <t>2017年报</t>
         </is>
       </c>
       <c r="D352" t="n">
-        <v>20170523</v>
+        <v>20180704</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>10派1元(实施方案)</t>
+          <t>10派1.00元(实施方案)</t>
         </is>
       </c>
       <c r="F352" t="n">
         <v>0.1</v>
       </c>
       <c r="G352" t="n">
-        <v>16.05386299</v>
+        <v>18.86828884</v>
       </c>
       <c r="H352" t="n">
-        <v>0.006229030362492212</v>
+        <v>0.005299897666819902</v>
       </c>
       <c r="I352" t="n">
         <v>0.07238100125045088</v>
@@ -15482,25 +15482,25 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>2015年报</t>
+          <t>2016年报</t>
         </is>
       </c>
       <c r="D353" t="n">
-        <v>20160603</v>
+        <v>20170523</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>10转10股派1元(实施方案)</t>
+          <t>10派1元(实施方案)</t>
         </is>
       </c>
       <c r="F353" t="n">
         <v>0.1</v>
       </c>
       <c r="G353" t="n">
-        <v>16.82117011</v>
+        <v>16.05386299</v>
       </c>
       <c r="H353" t="n">
-        <v>0.005944889644778701</v>
+        <v>0.006229030362492212</v>
       </c>
       <c r="I353" t="n">
         <v>0.07238100125045088</v>
@@ -15525,25 +15525,25 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>2014年报</t>
+          <t>2015年报</t>
         </is>
       </c>
       <c r="D354" t="n">
-        <v>20150514</v>
+        <v>20160603</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>10转17股派1.0元(实施方案)</t>
+          <t>10转10股派1元(实施方案)</t>
         </is>
       </c>
       <c r="F354" t="n">
         <v>0.1</v>
       </c>
       <c r="G354" t="n">
-        <v>6.70690046</v>
+        <v>16.82117011</v>
       </c>
       <c r="H354" t="n">
-        <v>0.01491001701850217</v>
+        <v>0.005944889644778701</v>
       </c>
       <c r="I354" t="n">
         <v>0.07238100125045088</v>
@@ -15568,25 +15568,25 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>2013年报</t>
+          <t>2014年报</t>
         </is>
       </c>
       <c r="D355" t="n">
-        <v>20140417</v>
+        <v>20150514</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>10派2元(实施方案)</t>
+          <t>10转17股派1.0元(实施方案)</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G355" t="n">
-        <v>2.25708913</v>
+        <v>6.70690046</v>
       </c>
       <c r="H355" t="n">
-        <v>0.08860970412807756</v>
+        <v>0.01491001701850217</v>
       </c>
       <c r="I355" t="n">
         <v>0.07238100125045088</v>
@@ -15601,44 +15601,44 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>SZ002466</t>
+          <t>SZ002555</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>天齐锂业</t>
+          <t>三七互娱</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>2023年报(未公布具体日期)</t>
+          <t>2013年报</t>
         </is>
       </c>
       <c r="D356" t="n">
-        <v>20240403</v>
+        <v>20140417</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>10派13.5元(董事会预案)(未确定具体日期)</t>
+          <t>10派2元(实施方案)</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>1.35</v>
+        <v>0.2</v>
       </c>
       <c r="G356" t="n">
-        <v>66.99829008</v>
+        <v>2.25708913</v>
       </c>
       <c r="H356" t="n">
-        <v>0.02014976797748149</v>
+        <v>0.08860970412807756</v>
       </c>
       <c r="I356" t="n">
-        <v>0.1139810986084628</v>
+        <v>0.07238100125045088</v>
       </c>
       <c r="J356" t="n">
-        <v>0.1887205599949378</v>
+        <v>0.1327874431109732</v>
       </c>
       <c r="K356" t="n">
-        <v>0.01486776536148534</v>
+        <v>0.01703905110059022</v>
       </c>
     </row>
     <row r="357">
@@ -15654,25 +15654,25 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>2022年报</t>
+          <t>2023年报(未公布具体日期)</t>
         </is>
       </c>
       <c r="D357" t="n">
-        <v>20230629</v>
+        <v>20240403</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>10派30元(实施方案)</t>
+          <t>10派13.5元(董事会预案)(未确定具体日期)</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>3</v>
+        <v>1.35</v>
       </c>
       <c r="G357" t="n">
-        <v>94.14793718999999</v>
+        <v>66.99829008</v>
       </c>
       <c r="H357" t="n">
-        <v>0.03186474488491127</v>
+        <v>0.02014976797748149</v>
       </c>
       <c r="I357" t="n">
         <v>0.1139810986084628</v>
@@ -15697,25 +15697,25 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>2018年报</t>
+          <t>2022年报</t>
         </is>
       </c>
       <c r="D358" t="n">
-        <v>20190618</v>
+        <v>20230629</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>10派1.800102元(实施方案)</t>
+          <t>10派30元(实施方案)</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>0.1800102</v>
+        <v>3</v>
       </c>
       <c r="G358" t="n">
-        <v>36.17883174</v>
+        <v>94.14793718999999</v>
       </c>
       <c r="H358" t="n">
-        <v>0.004975566963954155</v>
+        <v>0.03186474488491127</v>
       </c>
       <c r="I358" t="n">
         <v>0.1139810986084628</v>
@@ -15740,25 +15740,25 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>2017年报</t>
+          <t>2018年报</t>
         </is>
       </c>
       <c r="D359" t="n">
-        <v>20180504</v>
+        <v>20190618</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>10派2.00元(实施方案)</t>
+          <t>10派1.800102元(实施方案)</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>0.2</v>
+        <v>0.1800102</v>
       </c>
       <c r="G359" t="n">
-        <v>38.65612479</v>
+        <v>36.17883174</v>
       </c>
       <c r="H359" t="n">
-        <v>0.005173824357369062</v>
+        <v>0.004975566963954155</v>
       </c>
       <c r="I359" t="n">
         <v>0.1139810986084628</v>
@@ -15783,25 +15783,25 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>2016年报</t>
+          <t>2017年报</t>
         </is>
       </c>
       <c r="D360" t="n">
-        <v>20170509</v>
+        <v>20180504</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>10派1.8元(实施方案)</t>
+          <t>10派2.00元(实施方案)</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="G360" t="n">
-        <v>27.90327202</v>
+        <v>38.65612479</v>
       </c>
       <c r="H360" t="n">
-        <v>0.006450856368062601</v>
+        <v>0.005173824357369062</v>
       </c>
       <c r="I360" t="n">
         <v>0.1139810986084628</v>
@@ -15826,25 +15826,25 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>2015年报</t>
+          <t>2016年报</t>
         </is>
       </c>
       <c r="D361" t="n">
-        <v>20160526</v>
+        <v>20170509</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>10转28股派3.00元(实施方案)</t>
+          <t>10派1.8元(实施方案)</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>0.3</v>
+        <v>0.18</v>
       </c>
       <c r="G361" t="n">
-        <v>14.5688837</v>
+        <v>27.90327202</v>
       </c>
       <c r="H361" t="n">
-        <v>0.02059183161713344</v>
+        <v>0.006450856368062601</v>
       </c>
       <c r="I361" t="n">
         <v>0.1139810986084628</v>
@@ -15859,44 +15859,44 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>SZ002027</t>
+          <t>SZ002466</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>分众传媒</t>
+          <t>天齐锂业</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>2022年报</t>
+          <t>2015年报</t>
         </is>
       </c>
       <c r="D362" t="n">
-        <v>20230630</v>
+        <v>20160526</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>10派2.8元(实施方案)</t>
+          <t>10转28股派3.00元(实施方案)</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="G362" t="n">
-        <v>5.81169835</v>
+        <v>14.5688837</v>
       </c>
       <c r="H362" t="n">
-        <v>0.04817868773247668</v>
+        <v>0.02059183161713344</v>
       </c>
       <c r="I362" t="n">
-        <v>0.03652614460452752</v>
+        <v>0.1139810986084628</v>
       </c>
       <c r="J362" t="n">
-        <v>0.1606174342942999</v>
+        <v>0.1887205599949378</v>
       </c>
       <c r="K362" t="n">
-        <v>0.02723403589220601</v>
+        <v>0.01486776536148534</v>
       </c>
     </row>
     <row r="363">
@@ -15912,25 +15912,25 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>2022三季报</t>
+          <t>2022年报</t>
         </is>
       </c>
       <c r="D363" t="n">
-        <v>20230110</v>
+        <v>20230630</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>10派1.4元(实施方案)</t>
+          <t>10派2.8元(实施方案)</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>0.14</v>
+        <v>0.28</v>
       </c>
       <c r="G363" t="n">
         <v>5.81169835</v>
       </c>
       <c r="H363" t="n">
-        <v>0.02408934386623834</v>
+        <v>0.04817868773247668</v>
       </c>
       <c r="I363" t="n">
         <v>0.03652614460452752</v>
@@ -15955,25 +15955,25 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>2021年报</t>
+          <t>2022三季报</t>
         </is>
       </c>
       <c r="D364" t="n">
-        <v>20220802</v>
+        <v>20230110</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>10派1.3元(实施方案)</t>
+          <t>10派1.4元(实施方案)</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="G364" t="n">
-        <v>7.97710288</v>
+        <v>5.81169835</v>
       </c>
       <c r="H364" t="n">
-        <v>0.01629664327458191</v>
+        <v>0.02408934386623834</v>
       </c>
       <c r="I364" t="n">
         <v>0.03652614460452752</v>
@@ -15998,25 +15998,25 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>2021中报</t>
+          <t>2021年报</t>
         </is>
       </c>
       <c r="D365" t="n">
-        <v>20211021</v>
+        <v>20220802</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>10派2.08元(实施方案)</t>
+          <t>10派1.3元(实施方案)</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>0.208</v>
+        <v>0.13</v>
       </c>
       <c r="G365" t="n">
         <v>7.97710288</v>
       </c>
       <c r="H365" t="n">
-        <v>0.02607462923933106</v>
+        <v>0.01629664327458191</v>
       </c>
       <c r="I365" t="n">
         <v>0.03652614460452752</v>
@@ -16041,25 +16041,25 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>2020年报</t>
+          <t>2021中报</t>
         </is>
       </c>
       <c r="D366" t="n">
-        <v>20210705</v>
+        <v>20211021</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>10派1.15元(实施方案)</t>
+          <t>10派2.08元(实施方案)</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>0.115</v>
+        <v>0.208</v>
       </c>
       <c r="G366" t="n">
-        <v>5.88146872</v>
+        <v>7.97710288</v>
       </c>
       <c r="H366" t="n">
-        <v>0.01955293915088611</v>
+        <v>0.02607462923933106</v>
       </c>
       <c r="I366" t="n">
         <v>0.03652614460452752</v>
@@ -16084,25 +16084,25 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>2019年报</t>
+          <t>2020年报</t>
         </is>
       </c>
       <c r="D367" t="n">
-        <v>20200706</v>
+        <v>20210705</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>10派0.70元(实施方案)</t>
+          <t>10派1.15元(实施方案)</t>
         </is>
       </c>
       <c r="F367" t="n">
-        <v>0.06999999999999999</v>
+        <v>0.115</v>
       </c>
       <c r="G367" t="n">
-        <v>5.00121516</v>
+        <v>5.88146872</v>
       </c>
       <c r="H367" t="n">
-        <v>0.01399659837870283</v>
+        <v>0.01955293915088611</v>
       </c>
       <c r="I367" t="n">
         <v>0.03652614460452752</v>
@@ -16127,25 +16127,25 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>2018年报</t>
+          <t>2019年报</t>
         </is>
       </c>
       <c r="D368" t="n">
-        <v>20190718</v>
+        <v>20200706</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>10派1元(实施方案)</t>
+          <t>10派0.70元(实施方案)</t>
         </is>
       </c>
       <c r="F368" t="n">
-        <v>0.1</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="G368" t="n">
-        <v>7.92127119</v>
+        <v>5.00121516</v>
       </c>
       <c r="H368" t="n">
-        <v>0.0126242363885032</v>
+        <v>0.01399659837870283</v>
       </c>
       <c r="I368" t="n">
         <v>0.03652614460452752</v>
@@ -16170,25 +16170,25 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>2017年报</t>
+          <t>2018年报</t>
         </is>
       </c>
       <c r="D369" t="n">
-        <v>20180628</v>
+        <v>20190718</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>10转2股派1元(实施方案)</t>
+          <t>10派1元(实施方案)</t>
         </is>
       </c>
       <c r="F369" t="n">
         <v>0.1</v>
       </c>
       <c r="G369" t="n">
-        <v>6.96135328</v>
+        <v>7.92127119</v>
       </c>
       <c r="H369" t="n">
-        <v>0.01436502300311356</v>
+        <v>0.0126242363885032</v>
       </c>
       <c r="I369" t="n">
         <v>0.03652614460452752</v>
@@ -16213,25 +16213,25 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>2016年报</t>
+          <t>2017年报</t>
         </is>
       </c>
       <c r="D370" t="n">
-        <v>20170705</v>
+        <v>20180628</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>10转4股派4.08元(实施方案)</t>
+          <t>10转2股派1元(实施方案)</t>
         </is>
       </c>
       <c r="F370" t="n">
-        <v>0.408</v>
+        <v>0.1</v>
       </c>
       <c r="G370" t="n">
-        <v>7.66484877</v>
+        <v>6.96135328</v>
       </c>
       <c r="H370" t="n">
-        <v>0.05323001304303621</v>
+        <v>0.01436502300311356</v>
       </c>
       <c r="I370" t="n">
         <v>0.03652614460452752</v>
@@ -16256,25 +16256,25 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>2015年报</t>
+          <t>2016年报</t>
         </is>
       </c>
       <c r="D371" t="n">
-        <v>20160629</v>
+        <v>20170705</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>10转10股派2.5元(实施方案)</t>
+          <t>10转4股派4.08元(实施方案)</t>
         </is>
       </c>
       <c r="F371" t="n">
-        <v>0.25</v>
+        <v>0.408</v>
       </c>
       <c r="G371" t="n">
-        <v>5.69058105</v>
+        <v>7.66484877</v>
       </c>
       <c r="H371" t="n">
-        <v>0.04393224484519029</v>
+        <v>0.05323001304303621</v>
       </c>
       <c r="I371" t="n">
         <v>0.03652614460452752</v>
@@ -16289,44 +16289,44 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>SZ000983</t>
+          <t>SZ002027</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>山西焦煤</t>
+          <t>分众传媒</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>2022年报</t>
+          <t>2015年报</t>
         </is>
       </c>
       <c r="D372" t="n">
-        <v>20230620</v>
+        <v>20160629</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>10派12元(实施方案)</t>
+          <t>10转10股派2.5元(实施方案)</t>
         </is>
       </c>
       <c r="F372" t="n">
-        <v>1.2</v>
+        <v>0.25</v>
       </c>
       <c r="G372" t="n">
-        <v>10.5627917</v>
+        <v>5.69058105</v>
       </c>
       <c r="H372" t="n">
-        <v>0.1136063300386772</v>
+        <v>0.04393224484519029</v>
       </c>
       <c r="I372" t="n">
-        <v>0.2188699021582472</v>
+        <v>0.03652614460452752</v>
       </c>
       <c r="J372" t="n">
-        <v>0.1297620051104251</v>
+        <v>0.1606174342942999</v>
       </c>
       <c r="K372" t="n">
-        <v>0.03740903526210006</v>
+        <v>0.02723403589220601</v>
       </c>
     </row>
     <row r="373">
@@ -16342,25 +16342,25 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>2021年报</t>
+          <t>2022年报</t>
         </is>
       </c>
       <c r="D373" t="n">
-        <v>20220712</v>
+        <v>20230620</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>10派8元(实施方案)</t>
+          <t>10派12元(实施方案)</t>
         </is>
       </c>
       <c r="F373" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="G373" t="n">
-        <v>6.43053462</v>
+        <v>10.5627917</v>
       </c>
       <c r="H373" t="n">
-        <v>0.1244064525384672</v>
+        <v>0.1136063300386772</v>
       </c>
       <c r="I373" t="n">
         <v>0.2188699021582472</v>
@@ -16385,25 +16385,25 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>2020年报</t>
+          <t>2021年报</t>
         </is>
       </c>
       <c r="D374" t="n">
-        <v>20210715</v>
+        <v>20220712</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>10派1元(实施方案)</t>
+          <t>10派8元(实施方案)</t>
         </is>
       </c>
       <c r="F374" t="n">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="G374" t="n">
-        <v>3.52673333</v>
+        <v>6.43053462</v>
       </c>
       <c r="H374" t="n">
-        <v>0.02835485154189415</v>
+        <v>0.1244064525384672</v>
       </c>
       <c r="I374" t="n">
         <v>0.2188699021582472</v>
@@ -16428,25 +16428,25 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>2019年报</t>
+          <t>2020年报</t>
         </is>
       </c>
       <c r="D375" t="n">
-        <v>20200623</v>
+        <v>20210715</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>10送3股派1元(实施方案)</t>
+          <t>10派1元(实施方案)</t>
         </is>
       </c>
       <c r="F375" t="n">
         <v>0.1</v>
       </c>
       <c r="G375" t="n">
-        <v>3.6408041</v>
+        <v>3.52673333</v>
       </c>
       <c r="H375" t="n">
-        <v>0.02746645995042689</v>
+        <v>0.02835485154189415</v>
       </c>
       <c r="I375" t="n">
         <v>0.2188699021582472</v>
@@ -16471,25 +16471,25 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>2018年报</t>
+          <t>2019年报</t>
         </is>
       </c>
       <c r="D376" t="n">
-        <v>20190625</v>
+        <v>20200623</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>10派3元(实施方案)</t>
+          <t>10送3股派1元(实施方案)</t>
         </is>
       </c>
       <c r="F376" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G376" t="n">
-        <v>4.43042099</v>
+        <v>3.6408041</v>
       </c>
       <c r="H376" t="n">
-        <v>0.06771365535625995</v>
+        <v>0.02746645995042689</v>
       </c>
       <c r="I376" t="n">
         <v>0.2188699021582472</v>
@@ -16514,25 +16514,25 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>2017年报</t>
+          <t>2018年报</t>
         </is>
       </c>
       <c r="D377" t="n">
-        <v>20180711</v>
+        <v>20190625</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>10派0.4元(实施方案)</t>
+          <t>10派3元(实施方案)</t>
         </is>
       </c>
       <c r="F377" t="n">
-        <v>0.04</v>
+        <v>0.3</v>
       </c>
       <c r="G377" t="n">
-        <v>5.49521803</v>
+        <v>4.43042099</v>
       </c>
       <c r="H377" t="n">
-        <v>0.007279056041385131</v>
+        <v>0.06771365535625995</v>
       </c>
       <c r="I377" t="n">
         <v>0.2188699021582472</v>
@@ -16557,25 +16557,25 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>2016年报</t>
+          <t>2017年报</t>
         </is>
       </c>
       <c r="D378" t="n">
-        <v>20170619</v>
+        <v>20180711</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>10派0.11元(实施方案)</t>
+          <t>10派0.4元(实施方案)</t>
         </is>
       </c>
       <c r="F378" t="n">
-        <v>0.011</v>
+        <v>0.04</v>
       </c>
       <c r="G378" t="n">
-        <v>5.03642828</v>
+        <v>5.49521803</v>
       </c>
       <c r="H378" t="n">
-        <v>0.002184087489874868</v>
+        <v>0.007279056041385131</v>
       </c>
       <c r="I378" t="n">
         <v>0.2188699021582472</v>
@@ -16600,25 +16600,25 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>2015年报</t>
+          <t>2016年报</t>
         </is>
       </c>
       <c r="D379" t="n">
-        <v>20160712</v>
+        <v>20170619</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>10派0.02元(实施方案)</t>
+          <t>10派0.11元(实施方案)</t>
         </is>
       </c>
       <c r="F379" t="n">
-        <v>0.002</v>
+        <v>0.011</v>
       </c>
       <c r="G379" t="n">
-        <v>4.35663156</v>
+        <v>5.03642828</v>
       </c>
       <c r="H379" t="n">
-        <v>0.0004590702639082016</v>
+        <v>0.002184087489874868</v>
       </c>
       <c r="I379" t="n">
         <v>0.2188699021582472</v>
@@ -16643,25 +16643,25 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>2014年报</t>
+          <t>2015年报</t>
         </is>
       </c>
       <c r="D380" t="n">
-        <v>20150701</v>
+        <v>20160712</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>10派0.03元(实施方案)</t>
+          <t>10派0.02元(实施方案)</t>
         </is>
       </c>
       <c r="F380" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="G380" t="n">
-        <v>3.50434776</v>
+        <v>4.35663156</v>
       </c>
       <c r="H380" t="n">
-        <v>0.0008560794206109271</v>
+        <v>0.0004590702639082016</v>
       </c>
       <c r="I380" t="n">
         <v>0.2188699021582472</v>
@@ -16686,25 +16686,25 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>2013年报</t>
+          <t>2014年报</t>
         </is>
       </c>
       <c r="D381" t="n">
-        <v>20140626</v>
+        <v>20150701</v>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>10派0.1元(实施方案)</t>
+          <t>10派0.03元(实施方案)</t>
         </is>
       </c>
       <c r="F381" t="n">
-        <v>0.01</v>
+        <v>0.003</v>
       </c>
       <c r="G381" t="n">
-        <v>5.66793824</v>
+        <v>3.50434776</v>
       </c>
       <c r="H381" t="n">
-        <v>0.001764309979496177</v>
+        <v>0.0008560794206109271</v>
       </c>
       <c r="I381" t="n">
         <v>0.2188699021582472</v>
@@ -16719,44 +16719,44 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>SZ000895</t>
+          <t>SZ000983</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>双汇发展</t>
+          <t>山西焦煤</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>2023年报(未公布具体日期)</t>
+          <t>2013年报</t>
         </is>
       </c>
       <c r="D382" t="n">
-        <v>20240403</v>
+        <v>20140626</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>10派7.00元(董事会预案)(未确定具体日期)</t>
+          <t>10派0.1元(实施方案)</t>
         </is>
       </c>
       <c r="F382" t="n">
-        <v>0.7</v>
+        <v>0.01</v>
       </c>
       <c r="G382" t="n">
-        <v>24.79526446</v>
+        <v>5.66793824</v>
       </c>
       <c r="H382" t="n">
-        <v>0.02823119717594656</v>
+        <v>0.001764309979496177</v>
       </c>
       <c r="I382" t="n">
-        <v>0.05551928463835143</v>
+        <v>0.2188699021582472</v>
       </c>
       <c r="J382" t="n">
-        <v>0.05982069552775049</v>
+        <v>0.1297620051104251</v>
       </c>
       <c r="K382" t="n">
-        <v>0.05350754852030803</v>
+        <v>0.03740903526210006</v>
       </c>
     </row>
     <row r="383">
@@ -16772,25 +16772,25 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>2023中报</t>
+          <t>2023年报(未公布具体日期)</t>
         </is>
       </c>
       <c r="D383" t="n">
-        <v>20230908</v>
+        <v>20240403</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>10派7.5元(实施方案)</t>
+          <t>10派7.00元(董事会预案)(未确定具体日期)</t>
         </is>
       </c>
       <c r="F383" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="G383" t="n">
         <v>24.79526446</v>
       </c>
       <c r="H383" t="n">
-        <v>0.03024771125994274</v>
+        <v>0.02823119717594656</v>
       </c>
       <c r="I383" t="n">
         <v>0.05551928463835143</v>
@@ -16815,25 +16815,25 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>2022年报</t>
+          <t>2023中报</t>
         </is>
       </c>
       <c r="D384" t="n">
-        <v>20230426</v>
+        <v>20230908</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>10派10元(实施方案)</t>
+          <t>10派7.5元(实施方案)</t>
         </is>
       </c>
       <c r="F384" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G384" t="n">
-        <v>24.92361488</v>
+        <v>24.79526446</v>
       </c>
       <c r="H384" t="n">
-        <v>0.0401225907563855</v>
+        <v>0.03024771125994274</v>
       </c>
       <c r="I384" t="n">
         <v>0.05551928463835143</v>
@@ -16858,25 +16858,25 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>2022中报</t>
+          <t>2022年报</t>
         </is>
       </c>
       <c r="D385" t="n">
-        <v>20220914</v>
+        <v>20230426</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>10派6元(实施方案)</t>
+          <t>10派10元(实施方案)</t>
         </is>
       </c>
       <c r="F385" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="G385" t="n">
         <v>24.92361488</v>
       </c>
       <c r="H385" t="n">
-        <v>0.0240735544538313</v>
+        <v>0.0401225907563855</v>
       </c>
       <c r="I385" t="n">
         <v>0.05551928463835143</v>
@@ -16901,25 +16901,25 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>2021年报</t>
+          <t>2022中报</t>
         </is>
       </c>
       <c r="D386" t="n">
-        <v>20220428</v>
+        <v>20220914</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>10派12.98元(实施方案)</t>
+          <t>10派6元(实施方案)</t>
         </is>
       </c>
       <c r="F386" t="n">
-        <v>1.298</v>
+        <v>0.6</v>
       </c>
       <c r="G386" t="n">
-        <v>29.76574074</v>
+        <v>24.92361488</v>
       </c>
       <c r="H386" t="n">
-        <v>0.0436071795201694</v>
+        <v>0.0240735544538313</v>
       </c>
       <c r="I386" t="n">
         <v>0.05551928463835143</v>
@@ -16944,25 +16944,25 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>2020年报</t>
+          <t>2021年报</t>
         </is>
       </c>
       <c r="D387" t="n">
-        <v>20210520</v>
+        <v>20220428</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>10派16.8元(实施方案)</t>
+          <t>10派12.98元(实施方案)</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>1.68</v>
+        <v>1.298</v>
       </c>
       <c r="G387" t="n">
-        <v>36.61075597</v>
+        <v>29.76574074</v>
       </c>
       <c r="H387" t="n">
-        <v>0.0458881537812725</v>
+        <v>0.0436071795201694</v>
       </c>
       <c r="I387" t="n">
         <v>0.05551928463835143</v>
@@ -16987,25 +16987,25 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>2020三季报</t>
+          <t>2020年报</t>
         </is>
       </c>
       <c r="D388" t="n">
-        <v>20201124</v>
+        <v>20210520</v>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>10派6.4元(实施方案)</t>
+          <t>10派16.8元(实施方案)</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>0.64</v>
+        <v>1.68</v>
       </c>
       <c r="G388" t="n">
         <v>36.61075597</v>
       </c>
       <c r="H388" t="n">
-        <v>0.01748120144048476</v>
+        <v>0.0458881537812725</v>
       </c>
       <c r="I388" t="n">
         <v>0.05551928463835143</v>
@@ -17030,25 +17030,25 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>2019年报</t>
+          <t>2020三季报</t>
         </is>
       </c>
       <c r="D389" t="n">
-        <v>20200609</v>
+        <v>20201124</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>10派10元(实施方案)</t>
+          <t>10派6.4元(实施方案)</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>1</v>
+        <v>0.64</v>
       </c>
       <c r="G389" t="n">
-        <v>20.79110437</v>
+        <v>36.61075597</v>
       </c>
       <c r="H389" t="n">
-        <v>0.04809749314918186</v>
+        <v>0.01748120144048476</v>
       </c>
       <c r="I389" t="n">
         <v>0.05551928463835143</v>
@@ -17073,25 +17073,25 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>2018年报</t>
+          <t>2019年报</t>
         </is>
       </c>
       <c r="D390" t="n">
-        <v>20190419</v>
+        <v>20200609</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>10派5.5元(实施方案)</t>
+          <t>10派10元(实施方案)</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="G390" t="n">
-        <v>19.11325885</v>
+        <v>20.79110437</v>
       </c>
       <c r="H390" t="n">
-        <v>0.02877583589048709</v>
+        <v>0.04809749314918186</v>
       </c>
       <c r="I390" t="n">
         <v>0.05551928463835143</v>
@@ -17116,25 +17116,25 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>2018三季报</t>
+          <t>2018年报</t>
         </is>
       </c>
       <c r="D391" t="n">
-        <v>20181206</v>
+        <v>20190419</v>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>10派9元(实施方案)</t>
+          <t>10派5.5元(实施方案)</t>
         </is>
       </c>
       <c r="F391" t="n">
-        <v>0.9</v>
+        <v>0.55</v>
       </c>
       <c r="G391" t="n">
         <v>19.11325885</v>
       </c>
       <c r="H391" t="n">
-        <v>0.04708773145716069</v>
+        <v>0.02877583589048709</v>
       </c>
       <c r="I391" t="n">
         <v>0.05551928463835143</v>
@@ -17159,25 +17159,25 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>2017年报</t>
+          <t>2018三季报</t>
         </is>
       </c>
       <c r="D392" t="n">
-        <v>20180426</v>
+        <v>20181206</v>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>10派11元(实施方案)</t>
+          <t>10派9元(实施方案)</t>
         </is>
       </c>
       <c r="F392" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="G392" t="n">
-        <v>16.45382131</v>
+        <v>19.11325885</v>
       </c>
       <c r="H392" t="n">
-        <v>0.0668537708824796</v>
+        <v>0.04708773145716069</v>
       </c>
       <c r="I392" t="n">
         <v>0.05551928463835143</v>
@@ -17202,25 +17202,25 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>2016年报</t>
+          <t>2017年报</t>
         </is>
       </c>
       <c r="D393" t="n">
-        <v>20170510</v>
+        <v>20180426</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>10派12元(实施方案)</t>
+          <t>10派11元(实施方案)</t>
         </is>
       </c>
       <c r="F393" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G393" t="n">
-        <v>14.12868566</v>
+        <v>16.45382131</v>
       </c>
       <c r="H393" t="n">
-        <v>0.08493359034785122</v>
+        <v>0.0668537708824796</v>
       </c>
       <c r="I393" t="n">
         <v>0.05551928463835143</v>
@@ -17245,25 +17245,25 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>2016中报</t>
+          <t>2016年报</t>
         </is>
       </c>
       <c r="D394" t="n">
-        <v>20160923</v>
+        <v>20170510</v>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>10派9元(实施方案)</t>
+          <t>10派12元(实施方案)</t>
         </is>
       </c>
       <c r="F394" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="G394" t="n">
         <v>14.12868566</v>
       </c>
       <c r="H394" t="n">
-        <v>0.06370019276088842</v>
+        <v>0.08493359034785122</v>
       </c>
       <c r="I394" t="n">
         <v>0.05551928463835143</v>
@@ -17288,25 +17288,25 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>2015年报</t>
+          <t>2016中报</t>
         </is>
       </c>
       <c r="D395" t="n">
-        <v>20160427</v>
+        <v>20160923</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>10派12.5元(实施方案)</t>
+          <t>10派9元(实施方案)</t>
         </is>
       </c>
       <c r="F395" t="n">
-        <v>1.25</v>
+        <v>0.9</v>
       </c>
       <c r="G395" t="n">
-        <v>13.26816434</v>
+        <v>14.12868566</v>
       </c>
       <c r="H395" t="n">
-        <v>0.0942104701124014</v>
+        <v>0.06370019276088842</v>
       </c>
       <c r="I395" t="n">
         <v>0.05551928463835143</v>
@@ -17331,25 +17331,25 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>2014年报</t>
+          <t>2015年报</t>
         </is>
       </c>
       <c r="D396" t="n">
-        <v>20150519</v>
+        <v>20160427</v>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>10转5股派14.2元(实施方案)</t>
+          <t>10派12.5元(实施方案)</t>
         </is>
       </c>
       <c r="F396" t="n">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="G396" t="n">
-        <v>14.33647224</v>
+        <v>13.26816434</v>
       </c>
       <c r="H396" t="n">
-        <v>0.09904807655805846</v>
+        <v>0.0942104701124014</v>
       </c>
       <c r="I396" t="n">
         <v>0.05551928463835143</v>
@@ -17374,25 +17374,25 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>2013年报</t>
+          <t>2014年报</t>
         </is>
       </c>
       <c r="D397" t="n">
-        <v>20140423</v>
+        <v>20150519</v>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>10派14.5元(实施方案)</t>
+          <t>10转5股派14.2元(实施方案)</t>
         </is>
       </c>
       <c r="F397" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="G397" t="n">
-        <v>15.46468277</v>
+        <v>14.33647224</v>
       </c>
       <c r="H397" t="n">
-        <v>0.09376202677838699</v>
+        <v>0.09904807655805846</v>
       </c>
       <c r="I397" t="n">
         <v>0.05551928463835143</v>
@@ -17407,44 +17407,44 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>SZ000425</t>
+          <t>SZ000895</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>徐工机械</t>
+          <t>双汇发展</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>2022年报</t>
+          <t>2013年报</t>
         </is>
       </c>
       <c r="D398" t="n">
-        <v>20230613</v>
+        <v>20140423</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>10派1.5元(实施方案)</t>
+          <t>10派14.5元(实施方案)</t>
         </is>
       </c>
       <c r="F398" t="n">
-        <v>0.15</v>
+        <v>1.45</v>
       </c>
       <c r="G398" t="n">
-        <v>4.96229345</v>
+        <v>15.46468277</v>
       </c>
       <c r="H398" t="n">
-        <v>0.0302279584049992</v>
+        <v>0.09376202677838699</v>
       </c>
       <c r="I398" t="n">
-        <v>0.0962934840375318</v>
+        <v>0.05551928463835143</v>
       </c>
       <c r="J398" t="n">
-        <v>0.1273310374627605</v>
+        <v>0.05982069552775049</v>
       </c>
       <c r="K398" t="n">
-        <v>0.02299957207448314</v>
+        <v>0.05350754852030803</v>
       </c>
     </row>
     <row r="399">
@@ -17460,25 +17460,25 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>2022中报</t>
+          <t>2022年报</t>
         </is>
       </c>
       <c r="D399" t="n">
-        <v>20220927</v>
+        <v>20230613</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>10派2.30元(实施方案)</t>
+          <t>10派1.5元(实施方案)</t>
         </is>
       </c>
       <c r="F399" t="n">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="G399" t="n">
         <v>4.96229345</v>
       </c>
       <c r="H399" t="n">
-        <v>0.04634953622099878</v>
+        <v>0.0302279584049992</v>
       </c>
       <c r="I399" t="n">
         <v>0.0962934840375318</v>
@@ -17503,25 +17503,25 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>2020年报</t>
+          <t>2022中报</t>
         </is>
       </c>
       <c r="D400" t="n">
-        <v>20210713</v>
+        <v>20220927</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>10派1.00元(实施方案)</t>
+          <t>10派2.30元(实施方案)</t>
         </is>
       </c>
       <c r="F400" t="n">
-        <v>0.1</v>
+        <v>0.23</v>
       </c>
       <c r="G400" t="n">
-        <v>5.24528477</v>
+        <v>4.96229345</v>
       </c>
       <c r="H400" t="n">
-        <v>0.01906474183669536</v>
+        <v>0.04634953622099878</v>
       </c>
       <c r="I400" t="n">
         <v>0.0962934840375318</v>
@@ -17546,25 +17546,25 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>2019年报</t>
+          <t>2020年报</t>
         </is>
       </c>
       <c r="D401" t="n">
-        <v>20200702</v>
+        <v>20210713</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>10派0.60元(实施方案)</t>
+          <t>10派1.00元(实施方案)</t>
         </is>
       </c>
       <c r="F401" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="G401" t="n">
-        <v>3.97807049</v>
+        <v>5.24528477</v>
       </c>
       <c r="H401" t="n">
-        <v>0.0150826889947845</v>
+        <v>0.01906474183669536</v>
       </c>
       <c r="I401" t="n">
         <v>0.0962934840375318</v>
@@ -17589,11 +17589,11 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>2018年报</t>
+          <t>2019年报</t>
         </is>
       </c>
       <c r="D402" t="n">
-        <v>20190626</v>
+        <v>20200702</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
@@ -17604,10 +17604,10 @@
         <v>0.06</v>
       </c>
       <c r="G402" t="n">
-        <v>3.57308683</v>
+        <v>3.97807049</v>
       </c>
       <c r="H402" t="n">
-        <v>0.01679220317184399</v>
+        <v>0.0150826889947845</v>
       </c>
       <c r="I402" t="n">
         <v>0.0962934840375318</v>
@@ -17632,25 +17632,25 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>2017年报</t>
+          <t>2018年报</t>
         </is>
       </c>
       <c r="D403" t="n">
-        <v>20180529</v>
+        <v>20190626</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>10派0.40元(实施方案)</t>
+          <t>10派0.60元(实施方案)</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="G403" t="n">
-        <v>3.35247295</v>
+        <v>3.57308683</v>
       </c>
       <c r="H403" t="n">
-        <v>0.01193149075222218</v>
+        <v>0.01679220317184399</v>
       </c>
       <c r="I403" t="n">
         <v>0.0962934840375318</v>
@@ -17675,25 +17675,25 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>2016年报</t>
+          <t>2017年报</t>
         </is>
       </c>
       <c r="D404" t="n">
-        <v>20170606</v>
+        <v>20180529</v>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>10派0.15元(实施方案)</t>
+          <t>10派0.40元(实施方案)</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>0.015</v>
+        <v>0.04</v>
       </c>
       <c r="G404" t="n">
-        <v>2.90928162</v>
+        <v>3.35247295</v>
       </c>
       <c r="H404" t="n">
-        <v>0.005155911994521864</v>
+        <v>0.01193149075222218</v>
       </c>
       <c r="I404" t="n">
         <v>0.0962934840375318</v>
@@ -17718,20 +17718,26 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>2015中报</t>
+          <t>2016年报</t>
         </is>
       </c>
       <c r="D405" t="n">
-        <v>20150922</v>
+        <v>20170606</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>10转20股(实施方案)</t>
-        </is>
-      </c>
-      <c r="F405" t="inlineStr"/>
-      <c r="G405" t="inlineStr"/>
-      <c r="H405" t="inlineStr"/>
+          <t>10派0.15元(实施方案)</t>
+        </is>
+      </c>
+      <c r="F405" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G405" t="n">
+        <v>2.90928162</v>
+      </c>
+      <c r="H405" t="n">
+        <v>0.005155911994521864</v>
+      </c>
       <c r="I405" t="n">
         <v>0.0962934840375318</v>
       </c>
@@ -17755,26 +17761,20 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>2014年报</t>
+          <t>2015中报</t>
         </is>
       </c>
       <c r="D406" t="n">
-        <v>20150616</v>
+        <v>20150922</v>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>10派0.60元(实施方案)</t>
-        </is>
-      </c>
-      <c r="F406" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="G406" t="n">
-        <v>2.35885061</v>
-      </c>
-      <c r="H406" t="n">
-        <v>0.02543611695697846</v>
-      </c>
+          <t>10转20股(实施方案)</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr"/>
+      <c r="G406" t="inlineStr"/>
+      <c r="H406" t="inlineStr"/>
       <c r="I406" t="n">
         <v>0.0962934840375318</v>
       </c>
@@ -17798,25 +17798,25 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>2013年报</t>
+          <t>2014年报</t>
         </is>
       </c>
       <c r="D407" t="n">
-        <v>20140703</v>
+        <v>20150616</v>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>10派1.00元(实施方案)</t>
+          <t>10派0.60元(实施方案)</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="G407" t="n">
-        <v>2.70595714</v>
+        <v>2.35885061</v>
       </c>
       <c r="H407" t="n">
-        <v>0.03695550033730394</v>
+        <v>0.02543611695697846</v>
       </c>
       <c r="I407" t="n">
         <v>0.0962934840375318</v>
@@ -17831,44 +17831,44 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>SZ000408</t>
+          <t>SZ000425</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>藏格矿业</t>
+          <t>徐工机械</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>2023年报(未公布具体日期)</t>
+          <t>2013年报</t>
         </is>
       </c>
       <c r="D408" t="n">
-        <v>20240403</v>
+        <v>20140703</v>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>10派8元(董事会预案)(未确定具体日期)</t>
+          <t>10派1.00元(实施方案)</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="G408" t="n">
-        <v>23.42238264</v>
+        <v>2.70595714</v>
       </c>
       <c r="H408" t="n">
-        <v>0.03415536379436418</v>
+        <v>0.03695550033730394</v>
       </c>
       <c r="I408" t="n">
-        <v>0.2457672440123786</v>
+        <v>0.0962934840375318</v>
       </c>
       <c r="J408" t="n">
-        <v>0.2011079154709465</v>
+        <v>0.1273310374627605</v>
       </c>
       <c r="K408" t="n">
-        <v>0.03840858797782681</v>
+        <v>0.02299957207448314</v>
       </c>
     </row>
     <row r="409">
@@ -17884,11 +17884,11 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>2023中报</t>
+          <t>2023年报</t>
         </is>
       </c>
       <c r="D409" t="n">
-        <v>20230823</v>
+        <v>20240418</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
@@ -17927,25 +17927,25 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>2022年报</t>
+          <t>2023中报</t>
         </is>
       </c>
       <c r="D410" t="n">
-        <v>20230412</v>
+        <v>20230823</v>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>10派9.60元(实施方案)</t>
+          <t>10派8元(实施方案)</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>0.96</v>
+        <v>0.8</v>
       </c>
       <c r="G410" t="n">
-        <v>28.03471694</v>
+        <v>23.42238264</v>
       </c>
       <c r="H410" t="n">
-        <v>0.03424325639008931</v>
+        <v>0.03415536379436418</v>
       </c>
       <c r="I410" t="n">
         <v>0.2457672440123786</v>
@@ -17970,25 +17970,25 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>2022中报</t>
+          <t>2022年报</t>
         </is>
       </c>
       <c r="D411" t="n">
-        <v>20220818</v>
+        <v>20230412</v>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>10派18.98元(实施方案)</t>
+          <t>10派9.60元(实施方案)</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>1.898</v>
+        <v>0.96</v>
       </c>
       <c r="G411" t="n">
         <v>28.03471694</v>
       </c>
       <c r="H411" t="n">
-        <v>0.06770177148790575</v>
+        <v>0.03424325639008931</v>
       </c>
       <c r="I411" t="n">
         <v>0.2457672440123786</v>
@@ -18013,25 +18013,25 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>2017中报</t>
+          <t>2022中报</t>
         </is>
       </c>
       <c r="D412" t="n">
-        <v>20171113</v>
+        <v>20220818</v>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>10派3.00元(实施方案)</t>
+          <t>10派18.98元(实施方案)</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>0.3</v>
+        <v>1.898</v>
       </c>
       <c r="G412" t="n">
-        <v>13.76956261</v>
+        <v>28.03471694</v>
       </c>
       <c r="H412" t="n">
-        <v>0.02178718442241064</v>
+        <v>0.06770177148790575</v>
       </c>
       <c r="I412" t="n">
         <v>0.2457672440123786</v>
@@ -18046,44 +18046,44 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>SZ000002</t>
+          <t>SZ000408</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>万科A</t>
+          <t>藏格矿业</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>2022年报</t>
+          <t>2017中报</t>
         </is>
       </c>
       <c r="D413" t="n">
-        <v>20230824</v>
+        <v>20171113</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>10派6.8元(实施方案)</t>
+          <t>10派3.00元(实施方案)</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="G413" t="n">
-        <v>16.61287438</v>
+        <v>13.76956261</v>
       </c>
       <c r="H413" t="n">
-        <v>0.04093210990740062</v>
+        <v>0.02178718442241064</v>
       </c>
       <c r="I413" t="n">
-        <v>-0.2028885913129123</v>
+        <v>0.2457672440123786</v>
       </c>
       <c r="J413" t="n">
-        <v>0.04635966204616349</v>
+        <v>0.2011079154709465</v>
       </c>
       <c r="K413" t="n">
-        <v>0.05563414065800011</v>
+        <v>0.03840858797782681</v>
       </c>
     </row>
     <row r="414">
@@ -18099,25 +18099,25 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>2021年报</t>
+          <t>2022年报</t>
         </is>
       </c>
       <c r="D414" t="n">
-        <v>20220824</v>
+        <v>20230824</v>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>10派9.761257元(实施方案)</t>
+          <t>10派6.8元(实施方案)</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>0.9761257000000001</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="G414" t="n">
-        <v>21.1357465</v>
+        <v>16.61287438</v>
       </c>
       <c r="H414" t="n">
-        <v>0.04618363964575371</v>
+        <v>0.04093210990740062</v>
       </c>
       <c r="I414" t="n">
         <v>-0.2028885913129123</v>
@@ -18142,25 +18142,25 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>2020年报</t>
+          <t>2021年报</t>
         </is>
       </c>
       <c r="D415" t="n">
-        <v>20210824</v>
+        <v>20220824</v>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>10派12.5元(实施方案)</t>
+          <t>10派9.761257元(实施方案)</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>1.25</v>
+        <v>0.9761257000000001</v>
       </c>
       <c r="G415" t="n">
-        <v>23.27894033</v>
+        <v>21.1357465</v>
       </c>
       <c r="H415" t="n">
-        <v>0.05369660226282302</v>
+        <v>0.04618363964575371</v>
       </c>
       <c r="I415" t="n">
         <v>-0.2028885913129123</v>
@@ -18185,25 +18185,25 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>2019年报</t>
+          <t>2020年报</t>
         </is>
       </c>
       <c r="D416" t="n">
-        <v>20200813</v>
+        <v>20210824</v>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>10派10.16613元(实施方案)</t>
+          <t>10派12.5元(实施方案)</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>1.016613</v>
+        <v>1.25</v>
       </c>
       <c r="G416" t="n">
-        <v>22.22198975</v>
+        <v>23.27894033</v>
       </c>
       <c r="H416" t="n">
-        <v>0.04574806358193015</v>
+        <v>0.05369660226282302</v>
       </c>
       <c r="I416" t="n">
         <v>-0.2028885913129123</v>
@@ -18228,25 +18228,25 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>2018年报</t>
+          <t>2019年报</t>
         </is>
       </c>
       <c r="D417" t="n">
-        <v>20190814</v>
+        <v>20200813</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>10派10.45102元(实施方案)</t>
+          <t>10派10.16613元(实施方案)</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>1.045102</v>
+        <v>1.016613</v>
       </c>
       <c r="G417" t="n">
-        <v>20.96194609</v>
+        <v>22.22198975</v>
       </c>
       <c r="H417" t="n">
-        <v>0.04985710751820753</v>
+        <v>0.04574806358193015</v>
       </c>
       <c r="I417" t="n">
         <v>-0.2028885913129123</v>
@@ -18271,25 +18271,25 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>2017年报</t>
+          <t>2018年报</t>
         </is>
       </c>
       <c r="D418" t="n">
-        <v>20180822</v>
+        <v>20190814</v>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>10派9.0元(实施方案)</t>
+          <t>10派10.45102元(实施方案)</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>0.9</v>
+        <v>1.045102</v>
       </c>
       <c r="G418" t="n">
-        <v>17.6373113</v>
+        <v>20.96194609</v>
       </c>
       <c r="H418" t="n">
-        <v>0.05102818591176082</v>
+        <v>0.04985710751820753</v>
       </c>
       <c r="I418" t="n">
         <v>-0.2028885913129123</v>
@@ -18314,25 +18314,25 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>2016年报</t>
+          <t>2017年报</t>
         </is>
       </c>
       <c r="D419" t="n">
-        <v>20170828</v>
+        <v>20180822</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>10派7.9元(实施方案)</t>
+          <t>10派9.0元(实施方案)</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="G419" t="n">
-        <v>16.88738699</v>
+        <v>17.6373113</v>
       </c>
       <c r="H419" t="n">
-        <v>0.04678047589409805</v>
+        <v>0.05102818591176082</v>
       </c>
       <c r="I419" t="n">
         <v>-0.2028885913129123</v>
@@ -18357,25 +18357,25 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>2015年报</t>
+          <t>2016年报</t>
         </is>
       </c>
       <c r="D420" t="n">
-        <v>20160728</v>
+        <v>20170828</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>10派7.2元(实施方案)</t>
+          <t>10派7.9元(实施方案)</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>0.72</v>
+        <v>0.79</v>
       </c>
       <c r="G420" t="n">
-        <v>9.771717450000001</v>
+        <v>16.88738699</v>
       </c>
       <c r="H420" t="n">
-        <v>0.07368203222044656</v>
+        <v>0.04678047589409805</v>
       </c>
       <c r="I420" t="n">
         <v>-0.2028885913129123</v>
@@ -18400,25 +18400,25 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>2014年报</t>
+          <t>2015年报</t>
         </is>
       </c>
       <c r="D421" t="n">
-        <v>20150720</v>
+        <v>20160728</v>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>10派5元(实施方案)</t>
+          <t>10派7.2元(实施方案)</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>0.5</v>
+        <v>0.72</v>
       </c>
       <c r="G421" t="n">
-        <v>5.85618408</v>
+        <v>9.771717450000001</v>
       </c>
       <c r="H421" t="n">
-        <v>0.085379829795241</v>
+        <v>0.07368203222044656</v>
       </c>
       <c r="I421" t="n">
         <v>-0.2028885913129123</v>
@@ -18443,25 +18443,25 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>2013年报</t>
+          <t>2014年报</t>
         </is>
       </c>
       <c r="D422" t="n">
-        <v>20140507</v>
+        <v>20150720</v>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>10派4.1元(实施方案)</t>
+          <t>10派5元(实施方案)</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>0.41</v>
+        <v>0.5</v>
       </c>
       <c r="G422" t="n">
-        <v>6.50242907</v>
+        <v>5.85618408</v>
       </c>
       <c r="H422" t="n">
-        <v>0.06305335984233966</v>
+        <v>0.085379829795241</v>
       </c>
       <c r="I422" t="n">
         <v>-0.2028885913129123</v>
@@ -18470,6 +18470,49 @@
         <v>0.04635966204616349</v>
       </c>
       <c r="K422" t="n">
+        <v>0.05563414065800011</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>SZ000002</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>万科A</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>2013年报</t>
+        </is>
+      </c>
+      <c r="D423" t="n">
+        <v>20140507</v>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>10派4.1元(实施方案)</t>
+        </is>
+      </c>
+      <c r="F423" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G423" t="n">
+        <v>6.50242907</v>
+      </c>
+      <c r="H423" t="n">
+        <v>0.06305335984233966</v>
+      </c>
+      <c r="I423" t="n">
+        <v>-0.2028885913129123</v>
+      </c>
+      <c r="J423" t="n">
+        <v>0.04635966204616349</v>
+      </c>
+      <c r="K423" t="n">
         <v>0.05563414065800011</v>
       </c>
     </row>
